--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D26A4C1-93B5-453E-B2D6-FE4040264487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B190B9-C379-4B79-83EC-1740F9DC6BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>CID_GRUP_NOME</t>
+  </si>
   <si>
     <t>F00-F09 - Transtornos mentais orgânicos, inclusive os sintomáticos</t>
   </si>
@@ -65,10 +68,10 @@
     <t>F99-F99 - Transtorno mental não especificado</t>
   </si>
   <si>
-    <t>variavel</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>Atendimentos na APS (exceto saúde mental)</t>
   </si>
 </sst>
 </file>
@@ -437,20 +440,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DE12"/>
+  <dimension ref="A1:DE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>42705</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>172</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>446</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="4" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3058</v>
@@ -1452,10 +1452,10 @@
         <v>4392</v>
       </c>
       <c r="F4">
-        <v>4069</v>
+        <v>5355</v>
       </c>
       <c r="G4">
-        <v>3340</v>
+        <v>4401</v>
       </c>
       <c r="H4">
         <v>4536</v>
@@ -1734,7 +1734,7 @@
         <v>4514</v>
       </c>
       <c r="CV4">
-        <v>4658</v>
+        <v>5725</v>
       </c>
       <c r="CW4">
         <v>4389</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="5" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1141</v>
@@ -1913,25 +1913,25 @@
         <v>1592</v>
       </c>
       <c r="AX5">
-        <v>1070</v>
+        <v>2530</v>
       </c>
       <c r="AY5">
-        <v>1018</v>
+        <v>2483</v>
       </c>
       <c r="AZ5">
-        <v>1074</v>
+        <v>2489</v>
       </c>
       <c r="BA5">
-        <v>1050</v>
+        <v>2431</v>
       </c>
       <c r="BB5">
-        <v>922</v>
+        <v>2070</v>
       </c>
       <c r="BC5">
-        <v>792</v>
+        <v>1815</v>
       </c>
       <c r="BD5">
-        <v>856</v>
+        <v>1950</v>
       </c>
       <c r="BE5">
         <v>1673</v>
@@ -1949,153 +1949,153 @@
         <v>1490</v>
       </c>
       <c r="BJ5">
-        <v>1247</v>
+        <v>2726</v>
       </c>
       <c r="BK5">
-        <v>1230</v>
+        <v>2852</v>
       </c>
       <c r="BL5">
-        <v>1384</v>
+        <v>3130</v>
       </c>
       <c r="BM5">
-        <v>1286</v>
+        <v>2996</v>
       </c>
       <c r="BN5">
-        <v>1381</v>
+        <v>3136</v>
       </c>
       <c r="BO5">
-        <v>1330</v>
+        <v>3074</v>
       </c>
       <c r="BP5">
-        <v>1179</v>
+        <v>2822</v>
       </c>
       <c r="BQ5">
         <v>600</v>
       </c>
       <c r="BR5">
-        <v>668</v>
+        <v>1764</v>
       </c>
       <c r="BS5">
-        <v>990</v>
+        <v>2554</v>
       </c>
       <c r="BT5">
-        <v>841</v>
+        <v>2223</v>
       </c>
       <c r="BU5">
-        <v>937</v>
+        <v>2361</v>
       </c>
       <c r="BV5">
-        <v>1357</v>
+        <v>3504</v>
       </c>
       <c r="BW5">
-        <v>1378</v>
+        <v>3610</v>
       </c>
       <c r="BX5">
-        <v>1400</v>
+        <v>3681</v>
       </c>
       <c r="BY5">
-        <v>1244</v>
+        <v>3205</v>
       </c>
       <c r="BZ5">
-        <v>1202</v>
+        <v>3358</v>
       </c>
       <c r="CA5">
-        <v>1140</v>
+        <v>3030</v>
       </c>
       <c r="CB5">
-        <v>1150</v>
+        <v>2772</v>
       </c>
       <c r="CC5">
-        <v>1141</v>
+        <v>2671</v>
       </c>
       <c r="CD5">
-        <v>1059</v>
+        <v>2506</v>
       </c>
       <c r="CE5">
-        <v>1411</v>
+        <v>3205</v>
       </c>
       <c r="CF5">
-        <v>1050</v>
+        <v>2261</v>
       </c>
       <c r="CG5">
         <v>1686</v>
       </c>
       <c r="CH5">
-        <v>2018</v>
+        <v>5139</v>
       </c>
       <c r="CI5">
-        <v>2084</v>
+        <v>5402</v>
       </c>
       <c r="CJ5">
-        <v>1914</v>
+        <v>5342</v>
       </c>
       <c r="CK5">
-        <v>1622</v>
+        <v>4322</v>
       </c>
       <c r="CL5">
-        <v>1917</v>
+        <v>5195</v>
       </c>
       <c r="CM5">
-        <v>1617</v>
+        <v>4304</v>
       </c>
       <c r="CN5">
-        <v>1584</v>
+        <v>4154</v>
       </c>
       <c r="CO5">
-        <v>1635</v>
+        <v>4466</v>
       </c>
       <c r="CP5">
-        <v>1367</v>
+        <v>3811</v>
       </c>
       <c r="CQ5">
-        <v>1520</v>
+        <v>4601</v>
       </c>
       <c r="CR5">
-        <v>1205</v>
+        <v>3417</v>
       </c>
       <c r="CS5">
-        <v>1465</v>
+        <v>4118</v>
       </c>
       <c r="CT5">
-        <v>2128</v>
+        <v>5037</v>
       </c>
       <c r="CU5">
-        <v>2205</v>
+        <v>5250</v>
       </c>
       <c r="CV5">
-        <v>2557</v>
+        <v>6308</v>
       </c>
       <c r="CW5">
-        <v>2109</v>
+        <v>5031</v>
       </c>
       <c r="CX5">
-        <v>2291</v>
+        <v>5584</v>
       </c>
       <c r="CY5">
-        <v>2308</v>
+        <v>5477</v>
       </c>
       <c r="CZ5">
-        <v>2106</v>
+        <v>5189</v>
       </c>
       <c r="DA5">
-        <v>1872</v>
+        <v>4474</v>
       </c>
       <c r="DB5">
-        <v>2364</v>
+        <v>5844</v>
       </c>
       <c r="DC5">
-        <v>2067</v>
+        <v>5139</v>
       </c>
       <c r="DD5">
-        <v>1928</v>
+        <v>4873</v>
       </c>
       <c r="DE5">
-        <v>2032</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="6" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>124</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="7" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="8" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>219</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="9" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>106</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="10" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>269</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="11" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>182</v>
@@ -4084,10 +4084,10 @@
         <v>8060</v>
       </c>
       <c r="F12">
-        <v>8154</v>
+        <v>9440</v>
       </c>
       <c r="G12">
-        <v>6883</v>
+        <v>7944</v>
       </c>
       <c r="H12">
         <v>8146</v>
@@ -4216,25 +4216,25 @@
         <v>6737</v>
       </c>
       <c r="AX12">
-        <v>5004</v>
+        <v>6464</v>
       </c>
       <c r="AY12">
-        <v>5299</v>
+        <v>6764</v>
       </c>
       <c r="AZ12">
-        <v>5274</v>
+        <v>6689</v>
       </c>
       <c r="BA12">
-        <v>5126</v>
+        <v>6507</v>
       </c>
       <c r="BB12">
-        <v>4531</v>
+        <v>5679</v>
       </c>
       <c r="BC12">
-        <v>4060</v>
+        <v>5083</v>
       </c>
       <c r="BD12">
-        <v>3927</v>
+        <v>5021</v>
       </c>
       <c r="BE12">
         <v>4576</v>
@@ -4252,148 +4252,477 @@
         <v>5346</v>
       </c>
       <c r="BJ12">
-        <v>6315</v>
+        <v>7794</v>
       </c>
       <c r="BK12">
-        <v>6062</v>
+        <v>7684</v>
       </c>
       <c r="BL12">
-        <v>6481</v>
+        <v>8227</v>
       </c>
       <c r="BM12">
-        <v>6329</v>
+        <v>8039</v>
       </c>
       <c r="BN12">
-        <v>6670</v>
+        <v>8425</v>
       </c>
       <c r="BO12">
-        <v>6356</v>
+        <v>8100</v>
       </c>
       <c r="BP12">
-        <v>5868</v>
+        <v>7511</v>
       </c>
       <c r="BQ12">
         <v>1744</v>
       </c>
       <c r="BR12">
-        <v>3178</v>
+        <v>4274</v>
       </c>
       <c r="BS12">
-        <v>4532</v>
+        <v>6096</v>
       </c>
       <c r="BT12">
-        <v>4685</v>
+        <v>6067</v>
       </c>
       <c r="BU12">
-        <v>4935</v>
+        <v>6359</v>
       </c>
       <c r="BV12">
-        <v>6944</v>
+        <v>9091</v>
       </c>
       <c r="BW12">
-        <v>7169</v>
+        <v>9401</v>
       </c>
       <c r="BX12">
-        <v>7027</v>
+        <v>9308</v>
       </c>
       <c r="BY12">
-        <v>6502</v>
+        <v>8463</v>
       </c>
       <c r="BZ12">
-        <v>6693</v>
+        <v>8849</v>
       </c>
       <c r="CA12">
-        <v>6058</v>
+        <v>7948</v>
       </c>
       <c r="CB12">
-        <v>6142</v>
+        <v>7764</v>
       </c>
       <c r="CC12">
-        <v>5989</v>
+        <v>7519</v>
       </c>
       <c r="CD12">
-        <v>5243</v>
+        <v>6690</v>
       </c>
       <c r="CE12">
-        <v>6769</v>
+        <v>8563</v>
       </c>
       <c r="CF12">
-        <v>4697</v>
+        <v>5908</v>
       </c>
       <c r="CG12">
         <v>4461</v>
       </c>
       <c r="CH12">
-        <v>9844</v>
+        <v>12965</v>
       </c>
       <c r="CI12">
-        <v>10215</v>
+        <v>13533</v>
       </c>
       <c r="CJ12">
-        <v>10265</v>
+        <v>13693</v>
       </c>
       <c r="CK12">
-        <v>8436</v>
+        <v>11136</v>
       </c>
       <c r="CL12">
-        <v>10315</v>
+        <v>13593</v>
       </c>
       <c r="CM12">
-        <v>8705</v>
+        <v>11392</v>
       </c>
       <c r="CN12">
-        <v>8072</v>
+        <v>10642</v>
       </c>
       <c r="CO12">
-        <v>8964</v>
+        <v>11795</v>
       </c>
       <c r="CP12">
-        <v>7290</v>
+        <v>9734</v>
       </c>
       <c r="CQ12">
-        <v>8282</v>
+        <v>11363</v>
       </c>
       <c r="CR12">
-        <v>6081</v>
+        <v>8293</v>
       </c>
       <c r="CS12">
-        <v>7579</v>
+        <v>10232</v>
       </c>
       <c r="CT12">
-        <v>10496</v>
+        <v>13405</v>
       </c>
       <c r="CU12">
-        <v>11037</v>
+        <v>14082</v>
       </c>
       <c r="CV12">
-        <v>12617</v>
+        <v>17435</v>
       </c>
       <c r="CW12">
-        <v>10587</v>
+        <v>13509</v>
       </c>
       <c r="CX12">
-        <v>11397</v>
+        <v>14690</v>
       </c>
       <c r="CY12">
-        <v>11272</v>
+        <v>14441</v>
       </c>
       <c r="CZ12">
-        <v>10014</v>
+        <v>13097</v>
       </c>
       <c r="DA12">
-        <v>8020</v>
+        <v>10622</v>
       </c>
       <c r="DB12">
-        <v>11448</v>
+        <v>14928</v>
       </c>
       <c r="DC12">
-        <v>10180</v>
+        <v>13252</v>
       </c>
       <c r="DD12">
-        <v>9213</v>
+        <v>12158</v>
       </c>
       <c r="DE12">
-        <v>10105</v>
+        <v>13476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>86493</v>
+      </c>
+      <c r="C13">
+        <v>91588</v>
+      </c>
+      <c r="D13">
+        <v>122986</v>
+      </c>
+      <c r="E13">
+        <v>120650</v>
+      </c>
+      <c r="F13">
+        <v>147190</v>
+      </c>
+      <c r="G13">
+        <v>115321</v>
+      </c>
+      <c r="H13">
+        <v>122526</v>
+      </c>
+      <c r="I13">
+        <v>120012</v>
+      </c>
+      <c r="J13">
+        <v>88941</v>
+      </c>
+      <c r="K13">
+        <v>107801</v>
+      </c>
+      <c r="L13">
+        <v>71969</v>
+      </c>
+      <c r="M13">
+        <v>74093</v>
+      </c>
+      <c r="N13">
+        <v>110927</v>
+      </c>
+      <c r="O13">
+        <v>121010</v>
+      </c>
+      <c r="P13">
+        <v>116265</v>
+      </c>
+      <c r="Q13">
+        <v>116314</v>
+      </c>
+      <c r="R13">
+        <v>122593</v>
+      </c>
+      <c r="S13">
+        <v>114118</v>
+      </c>
+      <c r="T13">
+        <v>116262</v>
+      </c>
+      <c r="U13">
+        <v>124783</v>
+      </c>
+      <c r="V13">
+        <v>107450</v>
+      </c>
+      <c r="W13">
+        <v>123378</v>
+      </c>
+      <c r="X13">
+        <v>78437</v>
+      </c>
+      <c r="Y13">
+        <v>95891</v>
+      </c>
+      <c r="Z13">
+        <v>114358</v>
+      </c>
+      <c r="AA13">
+        <v>135169</v>
+      </c>
+      <c r="AB13">
+        <v>161964</v>
+      </c>
+      <c r="AC13">
+        <v>123428</v>
+      </c>
+      <c r="AD13">
+        <v>145679</v>
+      </c>
+      <c r="AE13">
+        <v>135373</v>
+      </c>
+      <c r="AF13">
+        <v>129175</v>
+      </c>
+      <c r="AG13">
+        <v>140530</v>
+      </c>
+      <c r="AH13">
+        <v>140568</v>
+      </c>
+      <c r="AI13">
+        <v>130705</v>
+      </c>
+      <c r="AJ13">
+        <v>97921</v>
+      </c>
+      <c r="AK13">
+        <v>122947</v>
+      </c>
+      <c r="AL13">
+        <v>93659</v>
+      </c>
+      <c r="AM13">
+        <v>106229</v>
+      </c>
+      <c r="AN13">
+        <v>131196</v>
+      </c>
+      <c r="AO13">
+        <v>119253</v>
+      </c>
+      <c r="AP13">
+        <v>153825</v>
+      </c>
+      <c r="AQ13">
+        <v>159215</v>
+      </c>
+      <c r="AR13">
+        <v>141871</v>
+      </c>
+      <c r="AS13">
+        <v>164431</v>
+      </c>
+      <c r="AT13">
+        <v>157196</v>
+      </c>
+      <c r="AU13">
+        <v>129019</v>
+      </c>
+      <c r="AV13">
+        <v>131051</v>
+      </c>
+      <c r="AW13">
+        <v>134804</v>
+      </c>
+      <c r="AX13">
+        <v>164330</v>
+      </c>
+      <c r="AY13">
+        <v>169745</v>
+      </c>
+      <c r="AZ13">
+        <v>155600</v>
+      </c>
+      <c r="BA13">
+        <v>147355</v>
+      </c>
+      <c r="BB13">
+        <v>135439</v>
+      </c>
+      <c r="BC13">
+        <v>127570</v>
+      </c>
+      <c r="BD13">
+        <v>115381</v>
+      </c>
+      <c r="BE13">
+        <v>98407</v>
+      </c>
+      <c r="BF13">
+        <v>86377</v>
+      </c>
+      <c r="BG13">
+        <v>114828</v>
+      </c>
+      <c r="BH13">
+        <v>107686</v>
+      </c>
+      <c r="BI13">
+        <v>119860</v>
+      </c>
+      <c r="BJ13">
+        <v>212460</v>
+      </c>
+      <c r="BK13">
+        <v>205926</v>
+      </c>
+      <c r="BL13">
+        <v>221887</v>
+      </c>
+      <c r="BM13">
+        <v>207100</v>
+      </c>
+      <c r="BN13">
+        <v>218736</v>
+      </c>
+      <c r="BO13">
+        <v>206553</v>
+      </c>
+      <c r="BP13">
+        <v>197574</v>
+      </c>
+      <c r="BQ13">
+        <v>48459</v>
+      </c>
+      <c r="BR13">
+        <v>114545</v>
+      </c>
+      <c r="BS13">
+        <v>199666</v>
+      </c>
+      <c r="BT13">
+        <v>172035</v>
+      </c>
+      <c r="BU13">
+        <v>166373</v>
+      </c>
+      <c r="BV13">
+        <v>247284</v>
+      </c>
+      <c r="BW13">
+        <v>237029</v>
+      </c>
+      <c r="BX13">
+        <v>224278</v>
+      </c>
+      <c r="BY13">
+        <v>215775</v>
+      </c>
+      <c r="BZ13">
+        <v>244566</v>
+      </c>
+      <c r="CA13">
+        <v>231227</v>
+      </c>
+      <c r="CB13">
+        <v>241851</v>
+      </c>
+      <c r="CC13">
+        <v>240772</v>
+      </c>
+      <c r="CD13">
+        <v>199671</v>
+      </c>
+      <c r="CE13">
+        <v>229566</v>
+      </c>
+      <c r="CF13">
+        <v>191748</v>
+      </c>
+      <c r="CG13">
+        <v>261339</v>
+      </c>
+      <c r="CH13">
+        <v>232490</v>
+      </c>
+      <c r="CI13">
+        <v>239556</v>
+      </c>
+      <c r="CJ13">
+        <v>255622</v>
+      </c>
+      <c r="CK13">
+        <v>207192</v>
+      </c>
+      <c r="CL13">
+        <v>268477</v>
+      </c>
+      <c r="CM13">
+        <v>234264</v>
+      </c>
+      <c r="CN13">
+        <v>242851</v>
+      </c>
+      <c r="CO13">
+        <v>288167</v>
+      </c>
+      <c r="CP13">
+        <v>228121</v>
+      </c>
+      <c r="CQ13">
+        <v>254708</v>
+      </c>
+      <c r="CR13">
+        <v>180244</v>
+      </c>
+      <c r="CS13">
+        <v>228896</v>
+      </c>
+      <c r="CT13">
+        <v>220687</v>
+      </c>
+      <c r="CU13">
+        <v>235030</v>
+      </c>
+      <c r="CV13">
+        <v>292153</v>
+      </c>
+      <c r="CW13">
+        <v>253097</v>
+      </c>
+      <c r="CX13">
+        <v>265231</v>
+      </c>
+      <c r="CY13">
+        <v>265185</v>
+      </c>
+      <c r="CZ13">
+        <v>238007</v>
+      </c>
+      <c r="DA13">
+        <v>188822</v>
+      </c>
+      <c r="DB13">
+        <v>287853</v>
+      </c>
+      <c r="DC13">
+        <v>249689</v>
+      </c>
+      <c r="DD13">
+        <v>214956</v>
+      </c>
+      <c r="DE13">
+        <v>235276</v>
       </c>
     </row>
   </sheetData>

--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8DE84D-F28B-4B09-A732-0A73F633B679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD044F71-D974-43B3-A564-6ADD84FBCC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,10 +74,10 @@
     <t>F99-F99 - Transtorno mental não especificado</t>
   </si>
   <si>
-    <t>__Atendimentos na APS (exceto saúde mental)</t>
+    <t>__Grand Total</t>
   </si>
   <si>
-    <t>_Grand Total</t>
+    <t>_Atendimentos na APS (exceto saúde mental)</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:DE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,3953 +766,3958 @@
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>172</v>
+        <v>5751</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>5989</v>
       </c>
       <c r="D2">
-        <v>245</v>
+        <v>7662</v>
       </c>
       <c r="E2">
-        <v>242</v>
+        <v>8060</v>
       </c>
       <c r="F2">
-        <v>305</v>
+        <v>9440</v>
       </c>
       <c r="G2">
-        <v>271</v>
+        <v>7944</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>8146</v>
       </c>
       <c r="I2">
-        <v>197</v>
+        <v>6968</v>
       </c>
       <c r="J2">
-        <v>164</v>
+        <v>5279</v>
       </c>
       <c r="K2">
-        <v>193</v>
+        <v>5822</v>
       </c>
       <c r="L2">
-        <v>145</v>
+        <v>4300</v>
       </c>
       <c r="M2">
-        <v>109</v>
+        <v>4004</v>
       </c>
       <c r="N2">
-        <v>189</v>
+        <v>5885</v>
       </c>
       <c r="O2">
-        <v>218</v>
+        <v>6489</v>
       </c>
       <c r="P2">
-        <v>208</v>
+        <v>6093</v>
       </c>
       <c r="Q2">
-        <v>199</v>
+        <v>6183</v>
       </c>
       <c r="R2">
-        <v>193</v>
+        <v>6652</v>
       </c>
       <c r="S2">
-        <v>189</v>
+        <v>6242</v>
       </c>
       <c r="T2">
-        <v>254</v>
+        <v>6380</v>
       </c>
       <c r="U2">
-        <v>229</v>
+        <v>6891</v>
       </c>
       <c r="V2">
-        <v>191</v>
+        <v>5931</v>
       </c>
       <c r="W2">
-        <v>262</v>
+        <v>7545</v>
       </c>
       <c r="X2">
-        <v>165</v>
+        <v>5082</v>
       </c>
       <c r="Y2">
-        <v>159</v>
+        <v>5507</v>
       </c>
       <c r="Z2">
-        <v>200</v>
+        <v>5946</v>
       </c>
       <c r="AA2">
-        <v>249</v>
+        <v>6729</v>
       </c>
       <c r="AB2">
-        <v>286</v>
+        <v>7819</v>
       </c>
       <c r="AC2">
-        <v>223</v>
+        <v>6310</v>
       </c>
       <c r="AD2">
-        <v>261</v>
+        <v>7062</v>
       </c>
       <c r="AE2">
-        <v>222</v>
+        <v>6386</v>
       </c>
       <c r="AF2">
-        <v>258</v>
+        <v>6261</v>
       </c>
       <c r="AG2">
-        <v>252</v>
+        <v>7008</v>
       </c>
       <c r="AH2">
-        <v>223</v>
+        <v>7236</v>
       </c>
       <c r="AI2">
-        <v>242</v>
+        <v>7009</v>
       </c>
       <c r="AJ2">
-        <v>161</v>
+        <v>5229</v>
       </c>
       <c r="AK2">
-        <v>205</v>
+        <v>5917</v>
       </c>
       <c r="AL2">
-        <v>155</v>
+        <v>4494</v>
       </c>
       <c r="AM2">
-        <v>159</v>
+        <v>5133</v>
       </c>
       <c r="AN2">
-        <v>207</v>
+        <v>6536</v>
       </c>
       <c r="AO2">
-        <v>170</v>
+        <v>5944</v>
       </c>
       <c r="AP2">
-        <v>244</v>
+        <v>7266</v>
       </c>
       <c r="AQ2">
-        <v>264</v>
+        <v>7416</v>
       </c>
       <c r="AR2">
-        <v>208</v>
+        <v>6429</v>
       </c>
       <c r="AS2">
-        <v>266</v>
+        <v>7720</v>
       </c>
       <c r="AT2">
-        <v>234</v>
+        <v>7001</v>
       </c>
       <c r="AU2">
-        <v>252</v>
+        <v>5820</v>
       </c>
       <c r="AV2">
-        <v>235</v>
+        <v>6202</v>
       </c>
       <c r="AW2">
-        <v>267</v>
+        <v>6737</v>
       </c>
       <c r="AX2">
-        <v>257</v>
+        <v>6464</v>
       </c>
       <c r="AY2">
-        <v>219</v>
+        <v>6764</v>
       </c>
       <c r="AZ2">
-        <v>233</v>
+        <v>6689</v>
       </c>
       <c r="BA2">
-        <v>254</v>
+        <v>6507</v>
       </c>
       <c r="BB2">
-        <v>202</v>
+        <v>5679</v>
       </c>
       <c r="BC2">
-        <v>207</v>
+        <v>5083</v>
       </c>
       <c r="BD2">
-        <v>217</v>
+        <v>5021</v>
       </c>
       <c r="BE2">
-        <v>177</v>
+        <v>4576</v>
       </c>
       <c r="BF2">
-        <v>152</v>
+        <v>3680</v>
       </c>
       <c r="BG2">
-        <v>166</v>
+        <v>4154</v>
       </c>
       <c r="BH2">
-        <v>194</v>
+        <v>4672</v>
       </c>
       <c r="BI2">
-        <v>208</v>
+        <v>5346</v>
       </c>
       <c r="BJ2">
-        <v>347</v>
+        <v>7794</v>
       </c>
       <c r="BK2">
-        <v>308</v>
+        <v>7684</v>
       </c>
       <c r="BL2">
-        <v>356</v>
+        <v>8227</v>
       </c>
       <c r="BM2">
-        <v>358</v>
+        <v>8039</v>
       </c>
       <c r="BN2">
-        <v>350</v>
+        <v>8425</v>
       </c>
       <c r="BO2">
-        <v>376</v>
+        <v>8100</v>
       </c>
       <c r="BP2">
-        <v>332</v>
+        <v>7511</v>
       </c>
       <c r="BQ2">
-        <v>69</v>
+        <v>1744</v>
       </c>
       <c r="BR2">
-        <v>136</v>
+        <v>4274</v>
       </c>
       <c r="BS2">
-        <v>237</v>
+        <v>6096</v>
       </c>
       <c r="BT2">
-        <v>228</v>
+        <v>6067</v>
       </c>
       <c r="BU2">
-        <v>255</v>
+        <v>6359</v>
       </c>
       <c r="BV2">
-        <v>359</v>
+        <v>9091</v>
       </c>
       <c r="BW2">
-        <v>418</v>
+        <v>9401</v>
       </c>
       <c r="BX2">
-        <v>389</v>
+        <v>9308</v>
       </c>
       <c r="BY2">
-        <v>383</v>
+        <v>8463</v>
       </c>
       <c r="BZ2">
-        <v>381</v>
+        <v>8849</v>
       </c>
       <c r="CA2">
-        <v>348</v>
+        <v>7948</v>
       </c>
       <c r="CB2">
-        <v>368</v>
+        <v>7764</v>
       </c>
       <c r="CC2">
-        <v>391</v>
+        <v>7519</v>
       </c>
       <c r="CD2">
-        <v>294</v>
+        <v>6690</v>
       </c>
       <c r="CE2">
-        <v>381</v>
+        <v>8563</v>
       </c>
       <c r="CF2">
-        <v>287</v>
+        <v>5908</v>
       </c>
       <c r="CG2">
-        <v>206</v>
+        <v>4461</v>
       </c>
       <c r="CH2">
-        <v>484</v>
+        <v>12965</v>
       </c>
       <c r="CI2">
-        <v>462</v>
+        <v>13533</v>
       </c>
       <c r="CJ2">
-        <v>490</v>
+        <v>13693</v>
       </c>
       <c r="CK2">
-        <v>399</v>
+        <v>11136</v>
       </c>
       <c r="CL2">
-        <v>493</v>
+        <v>13593</v>
       </c>
       <c r="CM2">
-        <v>442</v>
+        <v>11392</v>
       </c>
       <c r="CN2">
-        <v>399</v>
+        <v>10642</v>
       </c>
       <c r="CO2">
-        <v>468</v>
+        <v>11795</v>
       </c>
       <c r="CP2">
-        <v>368</v>
+        <v>9734</v>
       </c>
       <c r="CQ2">
-        <v>428</v>
+        <v>11363</v>
       </c>
       <c r="CR2">
-        <v>362</v>
+        <v>8293</v>
       </c>
       <c r="CS2">
-        <v>422</v>
+        <v>10232</v>
       </c>
       <c r="CT2">
-        <v>532</v>
+        <v>13405</v>
       </c>
       <c r="CU2">
-        <v>563</v>
+        <v>14082</v>
       </c>
       <c r="CV2">
-        <v>669</v>
+        <v>17435</v>
       </c>
       <c r="CW2">
-        <v>500</v>
+        <v>13509</v>
       </c>
       <c r="CX2">
-        <v>551</v>
+        <v>14690</v>
       </c>
       <c r="CY2">
-        <v>603</v>
+        <v>14441</v>
       </c>
       <c r="CZ2">
-        <v>499</v>
+        <v>13097</v>
       </c>
       <c r="DA2">
-        <v>359</v>
+        <v>10622</v>
       </c>
       <c r="DB2">
-        <v>507</v>
+        <v>14928</v>
       </c>
       <c r="DC2">
-        <v>448</v>
+        <v>13252</v>
       </c>
       <c r="DD2">
-        <v>379</v>
+        <v>12158</v>
       </c>
       <c r="DE2">
-        <v>451</v>
+        <v>13476</v>
       </c>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>446</v>
+        <v>86493</v>
       </c>
       <c r="C3">
-        <v>425</v>
+        <v>91588</v>
       </c>
       <c r="D3">
-        <v>591</v>
+        <v>122986</v>
       </c>
       <c r="E3">
-        <v>648</v>
+        <v>120650</v>
       </c>
       <c r="F3">
-        <v>665</v>
+        <v>147190</v>
       </c>
       <c r="G3">
-        <v>630</v>
+        <v>115321</v>
       </c>
       <c r="H3">
-        <v>626</v>
+        <v>122526</v>
       </c>
       <c r="I3">
-        <v>466</v>
+        <v>120012</v>
       </c>
       <c r="J3">
-        <v>371</v>
+        <v>88941</v>
       </c>
       <c r="K3">
-        <v>430</v>
+        <v>107801</v>
       </c>
       <c r="L3">
-        <v>340</v>
+        <v>71969</v>
       </c>
       <c r="M3">
-        <v>314</v>
+        <v>74093</v>
       </c>
       <c r="N3">
-        <v>392</v>
+        <v>110927</v>
       </c>
       <c r="O3">
-        <v>482</v>
+        <v>121010</v>
       </c>
       <c r="P3">
-        <v>459</v>
+        <v>116265</v>
       </c>
       <c r="Q3">
-        <v>439</v>
+        <v>116314</v>
       </c>
       <c r="R3">
-        <v>540</v>
+        <v>122593</v>
       </c>
       <c r="S3">
-        <v>493</v>
+        <v>114118</v>
       </c>
       <c r="T3">
-        <v>495</v>
+        <v>116262</v>
       </c>
       <c r="U3">
-        <v>508</v>
+        <v>124783</v>
       </c>
       <c r="V3">
-        <v>442</v>
+        <v>107450</v>
       </c>
       <c r="W3">
-        <v>558</v>
+        <v>123378</v>
       </c>
       <c r="X3">
-        <v>424</v>
+        <v>78437</v>
       </c>
       <c r="Y3">
-        <v>479</v>
+        <v>95891</v>
       </c>
       <c r="Z3">
-        <v>427</v>
+        <v>114358</v>
       </c>
       <c r="AA3">
-        <v>482</v>
+        <v>135169</v>
       </c>
       <c r="AB3">
-        <v>539</v>
+        <v>161964</v>
       </c>
       <c r="AC3">
-        <v>478</v>
+        <v>123428</v>
       </c>
       <c r="AD3">
-        <v>541</v>
+        <v>145679</v>
       </c>
       <c r="AE3">
-        <v>473</v>
+        <v>135373</v>
       </c>
       <c r="AF3">
-        <v>458</v>
+        <v>129175</v>
       </c>
       <c r="AG3">
-        <v>507</v>
+        <v>140530</v>
       </c>
       <c r="AH3">
-        <v>533</v>
+        <v>140568</v>
       </c>
       <c r="AI3">
-        <v>506</v>
+        <v>130705</v>
       </c>
       <c r="AJ3">
-        <v>377</v>
+        <v>97921</v>
       </c>
       <c r="AK3">
-        <v>463</v>
+        <v>122947</v>
       </c>
       <c r="AL3">
-        <v>344</v>
+        <v>93659</v>
       </c>
       <c r="AM3">
-        <v>338</v>
+        <v>106229</v>
       </c>
       <c r="AN3">
-        <v>404</v>
+        <v>131196</v>
       </c>
       <c r="AO3">
-        <v>399</v>
+        <v>119253</v>
       </c>
       <c r="AP3">
-        <v>497</v>
+        <v>153825</v>
       </c>
       <c r="AQ3">
-        <v>525</v>
+        <v>159215</v>
       </c>
       <c r="AR3">
-        <v>445</v>
+        <v>141871</v>
       </c>
       <c r="AS3">
-        <v>514</v>
+        <v>164431</v>
       </c>
       <c r="AT3">
-        <v>503</v>
+        <v>157196</v>
       </c>
       <c r="AU3">
-        <v>422</v>
+        <v>129019</v>
       </c>
       <c r="AV3">
-        <v>426</v>
+        <v>131051</v>
       </c>
       <c r="AW3">
-        <v>536</v>
+        <v>134804</v>
       </c>
       <c r="AX3">
-        <v>352</v>
+        <v>164330</v>
       </c>
       <c r="AY3">
-        <v>394</v>
+        <v>169745</v>
       </c>
       <c r="AZ3">
-        <v>375</v>
+        <v>155600</v>
       </c>
       <c r="BA3">
-        <v>364</v>
+        <v>147355</v>
       </c>
       <c r="BB3">
-        <v>346</v>
+        <v>135439</v>
       </c>
       <c r="BC3">
-        <v>285</v>
+        <v>127570</v>
       </c>
       <c r="BD3">
-        <v>258</v>
+        <v>115381</v>
       </c>
       <c r="BE3">
-        <v>257</v>
+        <v>98407</v>
       </c>
       <c r="BF3">
-        <v>226</v>
+        <v>86377</v>
       </c>
       <c r="BG3">
-        <v>306</v>
+        <v>114828</v>
       </c>
       <c r="BH3">
-        <v>339</v>
+        <v>107686</v>
       </c>
       <c r="BI3">
-        <v>411</v>
+        <v>119860</v>
       </c>
       <c r="BJ3">
-        <v>441</v>
+        <v>212460</v>
       </c>
       <c r="BK3">
-        <v>413</v>
+        <v>205926</v>
       </c>
       <c r="BL3">
-        <v>399</v>
+        <v>221887</v>
       </c>
       <c r="BM3">
-        <v>441</v>
+        <v>207100</v>
       </c>
       <c r="BN3">
-        <v>447</v>
+        <v>218736</v>
       </c>
       <c r="BO3">
-        <v>445</v>
+        <v>206553</v>
       </c>
       <c r="BP3">
-        <v>435</v>
+        <v>197574</v>
       </c>
       <c r="BQ3">
-        <v>104</v>
+        <v>48459</v>
       </c>
       <c r="BR3">
-        <v>244</v>
+        <v>114545</v>
       </c>
       <c r="BS3">
-        <v>355</v>
+        <v>199666</v>
       </c>
       <c r="BT3">
-        <v>382</v>
+        <v>172035</v>
       </c>
       <c r="BU3">
-        <v>376</v>
+        <v>166373</v>
       </c>
       <c r="BV3">
-        <v>577</v>
+        <v>247284</v>
       </c>
       <c r="BW3">
-        <v>588</v>
+        <v>237029</v>
       </c>
       <c r="BX3">
-        <v>556</v>
+        <v>224278</v>
       </c>
       <c r="BY3">
-        <v>572</v>
+        <v>215775</v>
       </c>
       <c r="BZ3">
-        <v>503</v>
+        <v>244566</v>
       </c>
       <c r="CA3">
-        <v>436</v>
+        <v>231227</v>
       </c>
       <c r="CB3">
-        <v>458</v>
+        <v>241851</v>
       </c>
       <c r="CC3">
-        <v>379</v>
+        <v>240772</v>
       </c>
       <c r="CD3">
-        <v>390</v>
+        <v>199671</v>
       </c>
       <c r="CE3">
-        <v>490</v>
+        <v>229566</v>
       </c>
       <c r="CF3">
-        <v>331</v>
+        <v>191748</v>
       </c>
       <c r="CG3">
-        <v>280</v>
+        <v>261339</v>
       </c>
       <c r="CH3">
-        <v>813</v>
+        <v>232490</v>
       </c>
       <c r="CI3">
-        <v>803</v>
+        <v>239556</v>
       </c>
       <c r="CJ3">
-        <v>828</v>
+        <v>255622</v>
       </c>
       <c r="CK3">
-        <v>710</v>
+        <v>207192</v>
       </c>
       <c r="CL3">
-        <v>805</v>
+        <v>268477</v>
       </c>
       <c r="CM3">
-        <v>678</v>
+        <v>234264</v>
       </c>
       <c r="CN3">
-        <v>624</v>
+        <v>242851</v>
       </c>
       <c r="CO3">
-        <v>699</v>
+        <v>288167</v>
       </c>
       <c r="CP3">
-        <v>622</v>
+        <v>228121</v>
       </c>
       <c r="CQ3">
-        <v>744</v>
+        <v>254708</v>
       </c>
       <c r="CR3">
-        <v>501</v>
+        <v>180244</v>
       </c>
       <c r="CS3">
-        <v>628</v>
+        <v>228896</v>
       </c>
       <c r="CT3">
-        <v>861</v>
+        <v>220687</v>
       </c>
       <c r="CU3">
-        <v>925</v>
+        <v>235030</v>
       </c>
       <c r="CV3">
-        <v>1167</v>
+        <v>292153</v>
       </c>
       <c r="CW3">
-        <v>813</v>
+        <v>253097</v>
       </c>
       <c r="CX3">
-        <v>824</v>
+        <v>265231</v>
       </c>
       <c r="CY3">
-        <v>883</v>
+        <v>265185</v>
       </c>
       <c r="CZ3">
-        <v>803</v>
+        <v>238007</v>
       </c>
       <c r="DA3">
-        <v>743</v>
+        <v>188822</v>
       </c>
       <c r="DB3">
-        <v>935</v>
+        <v>287853</v>
       </c>
       <c r="DC3">
-        <v>850</v>
+        <v>249689</v>
       </c>
       <c r="DD3">
-        <v>732</v>
+        <v>214956</v>
       </c>
       <c r="DE3">
-        <v>861</v>
+        <v>235276</v>
       </c>
     </row>
     <row r="4" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3058</v>
+        <v>172</v>
       </c>
       <c r="C4">
-        <v>3277</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>4147</v>
+        <v>245</v>
       </c>
       <c r="E4">
-        <v>4392</v>
+        <v>242</v>
       </c>
       <c r="F4">
-        <v>5355</v>
+        <v>305</v>
       </c>
       <c r="G4">
-        <v>4401</v>
+        <v>271</v>
       </c>
       <c r="H4">
-        <v>4536</v>
+        <v>210</v>
       </c>
       <c r="I4">
-        <v>3775</v>
+        <v>197</v>
       </c>
       <c r="J4">
-        <v>2984</v>
+        <v>164</v>
       </c>
       <c r="K4">
-        <v>3179</v>
+        <v>193</v>
       </c>
       <c r="L4">
-        <v>2389</v>
+        <v>145</v>
       </c>
       <c r="M4">
-        <v>2173</v>
+        <v>109</v>
       </c>
       <c r="N4">
-        <v>3062</v>
+        <v>189</v>
       </c>
       <c r="O4">
-        <v>3239</v>
+        <v>218</v>
       </c>
       <c r="P4">
-        <v>3098</v>
+        <v>208</v>
       </c>
       <c r="Q4">
-        <v>3206</v>
+        <v>199</v>
       </c>
       <c r="R4">
-        <v>3445</v>
+        <v>193</v>
       </c>
       <c r="S4">
-        <v>3176</v>
+        <v>189</v>
       </c>
       <c r="T4">
-        <v>3274</v>
+        <v>254</v>
       </c>
       <c r="U4">
-        <v>3585</v>
+        <v>229</v>
       </c>
       <c r="V4">
-        <v>3092</v>
+        <v>191</v>
       </c>
       <c r="W4">
-        <v>3979</v>
+        <v>262</v>
       </c>
       <c r="X4">
-        <v>2733</v>
+        <v>165</v>
       </c>
       <c r="Y4">
-        <v>2925</v>
+        <v>159</v>
       </c>
       <c r="Z4">
-        <v>3028</v>
+        <v>200</v>
       </c>
       <c r="AA4">
-        <v>3282</v>
+        <v>249</v>
       </c>
       <c r="AB4">
-        <v>3862</v>
+        <v>286</v>
       </c>
       <c r="AC4">
-        <v>3138</v>
+        <v>223</v>
       </c>
       <c r="AD4">
-        <v>3504</v>
+        <v>261</v>
       </c>
       <c r="AE4">
-        <v>3157</v>
+        <v>222</v>
       </c>
       <c r="AF4">
-        <v>3131</v>
+        <v>258</v>
       </c>
       <c r="AG4">
-        <v>3371</v>
+        <v>252</v>
       </c>
       <c r="AH4">
-        <v>3523</v>
+        <v>223</v>
       </c>
       <c r="AI4">
-        <v>3425</v>
+        <v>242</v>
       </c>
       <c r="AJ4">
-        <v>2695</v>
+        <v>161</v>
       </c>
       <c r="AK4">
-        <v>2950</v>
+        <v>205</v>
       </c>
       <c r="AL4">
-        <v>2066</v>
+        <v>155</v>
       </c>
       <c r="AM4">
-        <v>2346</v>
+        <v>159</v>
       </c>
       <c r="AN4">
-        <v>3049</v>
+        <v>207</v>
       </c>
       <c r="AO4">
-        <v>2772</v>
+        <v>170</v>
       </c>
       <c r="AP4">
-        <v>3349</v>
+        <v>244</v>
       </c>
       <c r="AQ4">
-        <v>3482</v>
+        <v>264</v>
       </c>
       <c r="AR4">
-        <v>3013</v>
+        <v>208</v>
       </c>
       <c r="AS4">
-        <v>3567</v>
+        <v>266</v>
       </c>
       <c r="AT4">
-        <v>3279</v>
+        <v>234</v>
       </c>
       <c r="AU4">
-        <v>2726</v>
+        <v>252</v>
       </c>
       <c r="AV4">
-        <v>3104</v>
+        <v>235</v>
       </c>
       <c r="AW4">
-        <v>3278</v>
+        <v>267</v>
       </c>
       <c r="AX4">
-        <v>2471</v>
+        <v>257</v>
       </c>
       <c r="AY4">
-        <v>2722</v>
+        <v>219</v>
       </c>
       <c r="AZ4">
-        <v>2563</v>
+        <v>233</v>
       </c>
       <c r="BA4">
-        <v>2544</v>
+        <v>254</v>
       </c>
       <c r="BB4">
-        <v>2242</v>
+        <v>202</v>
       </c>
       <c r="BC4">
-        <v>2029</v>
+        <v>207</v>
       </c>
       <c r="BD4">
-        <v>1908</v>
+        <v>217</v>
       </c>
       <c r="BE4">
-        <v>1914</v>
+        <v>177</v>
       </c>
       <c r="BF4">
-        <v>1560</v>
+        <v>152</v>
       </c>
       <c r="BG4">
-        <v>1780</v>
+        <v>166</v>
       </c>
       <c r="BH4">
-        <v>2015</v>
+        <v>194</v>
       </c>
       <c r="BI4">
-        <v>2340</v>
+        <v>208</v>
       </c>
       <c r="BJ4">
-        <v>2951</v>
+        <v>347</v>
       </c>
       <c r="BK4">
-        <v>2801</v>
+        <v>308</v>
       </c>
       <c r="BL4">
-        <v>3030</v>
+        <v>356</v>
       </c>
       <c r="BM4">
-        <v>2956</v>
+        <v>358</v>
       </c>
       <c r="BN4">
-        <v>3133</v>
+        <v>350</v>
       </c>
       <c r="BO4">
-        <v>2964</v>
+        <v>376</v>
       </c>
       <c r="BP4">
-        <v>2770</v>
+        <v>332</v>
       </c>
       <c r="BQ4">
-        <v>702</v>
+        <v>69</v>
       </c>
       <c r="BR4">
-        <v>1497</v>
+        <v>136</v>
       </c>
       <c r="BS4">
-        <v>2202</v>
+        <v>237</v>
       </c>
       <c r="BT4">
-        <v>2321</v>
+        <v>228</v>
       </c>
       <c r="BU4">
-        <v>2418</v>
+        <v>255</v>
       </c>
       <c r="BV4">
-        <v>3329</v>
+        <v>359</v>
       </c>
       <c r="BW4">
-        <v>3380</v>
+        <v>418</v>
       </c>
       <c r="BX4">
-        <v>3172</v>
+        <v>389</v>
       </c>
       <c r="BY4">
-        <v>2830</v>
+        <v>383</v>
       </c>
       <c r="BZ4">
-        <v>3029</v>
+        <v>381</v>
       </c>
       <c r="CA4">
-        <v>2771</v>
+        <v>348</v>
       </c>
       <c r="CB4">
-        <v>2659</v>
+        <v>368</v>
       </c>
       <c r="CC4">
-        <v>2721</v>
+        <v>391</v>
       </c>
       <c r="CD4">
-        <v>2389</v>
+        <v>294</v>
       </c>
       <c r="CE4">
-        <v>2985</v>
+        <v>381</v>
       </c>
       <c r="CF4">
-        <v>2006</v>
+        <v>287</v>
       </c>
       <c r="CG4">
-        <v>1564</v>
+        <v>206</v>
       </c>
       <c r="CH4">
-        <v>4370</v>
+        <v>484</v>
       </c>
       <c r="CI4">
-        <v>4539</v>
+        <v>462</v>
       </c>
       <c r="CJ4">
-        <v>4567</v>
+        <v>490</v>
       </c>
       <c r="CK4">
-        <v>3749</v>
+        <v>399</v>
       </c>
       <c r="CL4">
-        <v>4641</v>
+        <v>493</v>
       </c>
       <c r="CM4">
-        <v>3958</v>
+        <v>442</v>
       </c>
       <c r="CN4">
-        <v>3583</v>
+        <v>399</v>
       </c>
       <c r="CO4">
-        <v>4051</v>
+        <v>468</v>
       </c>
       <c r="CP4">
-        <v>3400</v>
+        <v>368</v>
       </c>
       <c r="CQ4">
-        <v>3835</v>
+        <v>428</v>
       </c>
       <c r="CR4">
-        <v>2780</v>
+        <v>362</v>
       </c>
       <c r="CS4">
-        <v>3565</v>
+        <v>422</v>
       </c>
       <c r="CT4">
-        <v>4463</v>
+        <v>532</v>
       </c>
       <c r="CU4">
-        <v>4514</v>
+        <v>563</v>
       </c>
       <c r="CV4">
-        <v>5725</v>
+        <v>669</v>
       </c>
       <c r="CW4">
-        <v>4389</v>
+        <v>500</v>
       </c>
       <c r="CX4">
-        <v>4849</v>
+        <v>551</v>
       </c>
       <c r="CY4">
-        <v>4701</v>
+        <v>603</v>
       </c>
       <c r="CZ4">
-        <v>4271</v>
+        <v>499</v>
       </c>
       <c r="DA4">
-        <v>3452</v>
+        <v>359</v>
       </c>
       <c r="DB4">
-        <v>4862</v>
+        <v>507</v>
       </c>
       <c r="DC4">
-        <v>4369</v>
+        <v>448</v>
       </c>
       <c r="DD4">
-        <v>4147</v>
+        <v>379</v>
       </c>
       <c r="DE4">
-        <v>4601</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1141</v>
+        <v>446</v>
       </c>
       <c r="C5">
-        <v>1214</v>
+        <v>425</v>
       </c>
       <c r="D5">
-        <v>1498</v>
+        <v>591</v>
       </c>
       <c r="E5">
-        <v>1685</v>
+        <v>648</v>
       </c>
       <c r="F5">
-        <v>1817</v>
+        <v>665</v>
       </c>
       <c r="G5">
-        <v>1512</v>
+        <v>630</v>
       </c>
       <c r="H5">
-        <v>1686</v>
+        <v>626</v>
       </c>
       <c r="I5">
-        <v>1526</v>
+        <v>466</v>
       </c>
       <c r="J5">
-        <v>1035</v>
+        <v>371</v>
       </c>
       <c r="K5">
-        <v>1152</v>
+        <v>430</v>
       </c>
       <c r="L5">
-        <v>788</v>
+        <v>340</v>
       </c>
       <c r="M5">
-        <v>796</v>
+        <v>314</v>
       </c>
       <c r="N5">
-        <v>1369</v>
+        <v>392</v>
       </c>
       <c r="O5">
-        <v>1490</v>
+        <v>482</v>
       </c>
       <c r="P5">
-        <v>1368</v>
+        <v>459</v>
       </c>
       <c r="Q5">
-        <v>1348</v>
+        <v>439</v>
       </c>
       <c r="R5">
-        <v>1418</v>
+        <v>540</v>
       </c>
       <c r="S5">
-        <v>1376</v>
+        <v>493</v>
       </c>
       <c r="T5">
-        <v>1411</v>
+        <v>495</v>
       </c>
       <c r="U5">
-        <v>1443</v>
+        <v>508</v>
       </c>
       <c r="V5">
-        <v>1269</v>
+        <v>442</v>
       </c>
       <c r="W5">
-        <v>1551</v>
+        <v>558</v>
       </c>
       <c r="X5">
-        <v>1022</v>
+        <v>424</v>
       </c>
       <c r="Y5">
-        <v>1074</v>
+        <v>479</v>
       </c>
       <c r="Z5">
-        <v>1458</v>
+        <v>427</v>
       </c>
       <c r="AA5">
-        <v>1613</v>
+        <v>482</v>
       </c>
       <c r="AB5">
-        <v>1823</v>
+        <v>539</v>
       </c>
       <c r="AC5">
-        <v>1435</v>
+        <v>478</v>
       </c>
       <c r="AD5">
-        <v>1589</v>
+        <v>541</v>
       </c>
       <c r="AE5">
-        <v>1531</v>
+        <v>473</v>
       </c>
       <c r="AF5">
-        <v>1393</v>
+        <v>458</v>
       </c>
       <c r="AG5">
-        <v>1628</v>
+        <v>507</v>
       </c>
       <c r="AH5">
-        <v>1694</v>
+        <v>533</v>
       </c>
       <c r="AI5">
-        <v>1709</v>
+        <v>506</v>
       </c>
       <c r="AJ5">
-        <v>1234</v>
+        <v>377</v>
       </c>
       <c r="AK5">
-        <v>1308</v>
+        <v>463</v>
       </c>
       <c r="AL5">
-        <v>1138</v>
+        <v>344</v>
       </c>
       <c r="AM5">
-        <v>1427</v>
+        <v>338</v>
       </c>
       <c r="AN5">
-        <v>1763</v>
+        <v>404</v>
       </c>
       <c r="AO5">
-        <v>1591</v>
+        <v>399</v>
       </c>
       <c r="AP5">
-        <v>1829</v>
+        <v>497</v>
       </c>
       <c r="AQ5">
-        <v>1782</v>
+        <v>525</v>
       </c>
       <c r="AR5">
-        <v>1593</v>
+        <v>445</v>
       </c>
       <c r="AS5">
-        <v>1897</v>
+        <v>514</v>
       </c>
       <c r="AT5">
-        <v>1840</v>
+        <v>503</v>
       </c>
       <c r="AU5">
-        <v>1459</v>
+        <v>422</v>
       </c>
       <c r="AV5">
-        <v>1540</v>
+        <v>426</v>
       </c>
       <c r="AW5">
-        <v>1592</v>
+        <v>536</v>
       </c>
       <c r="AX5">
-        <v>2530</v>
+        <v>352</v>
       </c>
       <c r="AY5">
-        <v>2483</v>
+        <v>394</v>
       </c>
       <c r="AZ5">
-        <v>2489</v>
+        <v>375</v>
       </c>
       <c r="BA5">
-        <v>2431</v>
+        <v>364</v>
       </c>
       <c r="BB5">
-        <v>2070</v>
+        <v>346</v>
       </c>
       <c r="BC5">
-        <v>1815</v>
+        <v>285</v>
       </c>
       <c r="BD5">
-        <v>1950</v>
+        <v>258</v>
       </c>
       <c r="BE5">
-        <v>1673</v>
+        <v>257</v>
       </c>
       <c r="BF5">
-        <v>1331</v>
+        <v>226</v>
       </c>
       <c r="BG5">
-        <v>1245</v>
+        <v>306</v>
       </c>
       <c r="BH5">
-        <v>1420</v>
+        <v>339</v>
       </c>
       <c r="BI5">
-        <v>1490</v>
+        <v>411</v>
       </c>
       <c r="BJ5">
-        <v>2726</v>
+        <v>441</v>
       </c>
       <c r="BK5">
-        <v>2852</v>
+        <v>413</v>
       </c>
       <c r="BL5">
-        <v>3130</v>
+        <v>399</v>
       </c>
       <c r="BM5">
-        <v>2996</v>
+        <v>441</v>
       </c>
       <c r="BN5">
-        <v>3136</v>
+        <v>447</v>
       </c>
       <c r="BO5">
-        <v>3074</v>
+        <v>445</v>
       </c>
       <c r="BP5">
-        <v>2822</v>
+        <v>435</v>
       </c>
       <c r="BQ5">
-        <v>600</v>
+        <v>104</v>
       </c>
       <c r="BR5">
-        <v>1764</v>
+        <v>244</v>
       </c>
       <c r="BS5">
-        <v>2554</v>
+        <v>355</v>
       </c>
       <c r="BT5">
-        <v>2223</v>
+        <v>382</v>
       </c>
       <c r="BU5">
-        <v>2361</v>
+        <v>376</v>
       </c>
       <c r="BV5">
-        <v>3504</v>
+        <v>577</v>
       </c>
       <c r="BW5">
-        <v>3610</v>
+        <v>588</v>
       </c>
       <c r="BX5">
-        <v>3681</v>
+        <v>556</v>
       </c>
       <c r="BY5">
-        <v>3205</v>
+        <v>572</v>
       </c>
       <c r="BZ5">
-        <v>3358</v>
+        <v>503</v>
       </c>
       <c r="CA5">
-        <v>3030</v>
+        <v>436</v>
       </c>
       <c r="CB5">
-        <v>2772</v>
+        <v>458</v>
       </c>
       <c r="CC5">
-        <v>2671</v>
+        <v>379</v>
       </c>
       <c r="CD5">
-        <v>2506</v>
+        <v>390</v>
       </c>
       <c r="CE5">
-        <v>3205</v>
+        <v>490</v>
       </c>
       <c r="CF5">
-        <v>2261</v>
+        <v>331</v>
       </c>
       <c r="CG5">
-        <v>1686</v>
+        <v>280</v>
       </c>
       <c r="CH5">
-        <v>5139</v>
+        <v>813</v>
       </c>
       <c r="CI5">
-        <v>5402</v>
+        <v>803</v>
       </c>
       <c r="CJ5">
-        <v>5342</v>
+        <v>828</v>
       </c>
       <c r="CK5">
-        <v>4322</v>
+        <v>710</v>
       </c>
       <c r="CL5">
-        <v>5195</v>
+        <v>805</v>
       </c>
       <c r="CM5">
-        <v>4304</v>
+        <v>678</v>
       </c>
       <c r="CN5">
-        <v>4154</v>
+        <v>624</v>
       </c>
       <c r="CO5">
-        <v>4466</v>
+        <v>699</v>
       </c>
       <c r="CP5">
-        <v>3811</v>
+        <v>622</v>
       </c>
       <c r="CQ5">
-        <v>4601</v>
+        <v>744</v>
       </c>
       <c r="CR5">
-        <v>3417</v>
+        <v>501</v>
       </c>
       <c r="CS5">
-        <v>4118</v>
+        <v>628</v>
       </c>
       <c r="CT5">
-        <v>5037</v>
+        <v>861</v>
       </c>
       <c r="CU5">
-        <v>5250</v>
+        <v>925</v>
       </c>
       <c r="CV5">
-        <v>6308</v>
+        <v>1167</v>
       </c>
       <c r="CW5">
-        <v>5031</v>
+        <v>813</v>
       </c>
       <c r="CX5">
-        <v>5584</v>
+        <v>824</v>
       </c>
       <c r="CY5">
-        <v>5477</v>
+        <v>883</v>
       </c>
       <c r="CZ5">
-        <v>5189</v>
+        <v>803</v>
       </c>
       <c r="DA5">
-        <v>4474</v>
+        <v>743</v>
       </c>
       <c r="DB5">
-        <v>5844</v>
+        <v>935</v>
       </c>
       <c r="DC5">
-        <v>5139</v>
+        <v>850</v>
       </c>
       <c r="DD5">
-        <v>4873</v>
+        <v>732</v>
       </c>
       <c r="DE5">
-        <v>5403</v>
+        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>3058</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>3277</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>4147</v>
       </c>
       <c r="E6">
-        <v>136</v>
+        <v>4392</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>5355</v>
       </c>
       <c r="G6">
-        <v>143</v>
+        <v>4401</v>
       </c>
       <c r="H6">
-        <v>148</v>
+        <v>4536</v>
       </c>
       <c r="I6">
-        <v>168</v>
+        <v>3775</v>
       </c>
       <c r="J6">
-        <v>82</v>
+        <v>2984</v>
       </c>
       <c r="K6">
-        <v>101</v>
+        <v>3179</v>
       </c>
       <c r="L6">
-        <v>70</v>
+        <v>2389</v>
       </c>
       <c r="M6">
-        <v>79</v>
+        <v>2173</v>
       </c>
       <c r="N6">
-        <v>99</v>
+        <v>3062</v>
       </c>
       <c r="O6">
-        <v>109</v>
+        <v>3239</v>
       </c>
       <c r="P6">
-        <v>111</v>
+        <v>3098</v>
       </c>
       <c r="Q6">
-        <v>98</v>
+        <v>3206</v>
       </c>
       <c r="R6">
-        <v>135</v>
+        <v>3445</v>
       </c>
       <c r="S6">
-        <v>120</v>
+        <v>3176</v>
       </c>
       <c r="T6">
-        <v>122</v>
+        <v>3274</v>
       </c>
       <c r="U6">
-        <v>121</v>
+        <v>3585</v>
       </c>
       <c r="V6">
-        <v>112</v>
+        <v>3092</v>
       </c>
       <c r="W6">
-        <v>140</v>
+        <v>3979</v>
       </c>
       <c r="X6">
-        <v>85</v>
+        <v>2733</v>
       </c>
       <c r="Y6">
-        <v>102</v>
+        <v>2925</v>
       </c>
       <c r="Z6">
-        <v>78</v>
+        <v>3028</v>
       </c>
       <c r="AA6">
-        <v>118</v>
+        <v>3282</v>
       </c>
       <c r="AB6">
-        <v>118</v>
+        <v>3862</v>
       </c>
       <c r="AC6">
-        <v>119</v>
+        <v>3138</v>
       </c>
       <c r="AD6">
-        <v>134</v>
+        <v>3504</v>
       </c>
       <c r="AE6">
-        <v>142</v>
+        <v>3157</v>
       </c>
       <c r="AF6">
-        <v>109</v>
+        <v>3131</v>
       </c>
       <c r="AG6">
-        <v>150</v>
+        <v>3371</v>
       </c>
       <c r="AH6">
-        <v>152</v>
+        <v>3523</v>
       </c>
       <c r="AI6">
-        <v>140</v>
+        <v>3425</v>
       </c>
       <c r="AJ6">
-        <v>95</v>
+        <v>2695</v>
       </c>
       <c r="AK6">
-        <v>88</v>
+        <v>2950</v>
       </c>
       <c r="AL6">
-        <v>88</v>
+        <v>2066</v>
       </c>
       <c r="AM6">
-        <v>85</v>
+        <v>2346</v>
       </c>
       <c r="AN6">
-        <v>118</v>
+        <v>3049</v>
       </c>
       <c r="AO6">
-        <v>124</v>
+        <v>2772</v>
       </c>
       <c r="AP6">
-        <v>135</v>
+        <v>3349</v>
       </c>
       <c r="AQ6">
-        <v>122</v>
+        <v>3482</v>
       </c>
       <c r="AR6">
-        <v>113</v>
+        <v>3013</v>
       </c>
       <c r="AS6">
-        <v>153</v>
+        <v>3567</v>
       </c>
       <c r="AT6">
-        <v>149</v>
+        <v>3279</v>
       </c>
       <c r="AU6">
-        <v>100</v>
+        <v>2726</v>
       </c>
       <c r="AV6">
-        <v>108</v>
+        <v>3104</v>
       </c>
       <c r="AW6">
-        <v>137</v>
+        <v>3278</v>
       </c>
       <c r="AX6">
-        <v>145</v>
+        <v>2471</v>
       </c>
       <c r="AY6">
-        <v>177</v>
+        <v>2722</v>
       </c>
       <c r="AZ6">
-        <v>154</v>
+        <v>2563</v>
       </c>
       <c r="BA6">
-        <v>166</v>
+        <v>2544</v>
       </c>
       <c r="BB6">
-        <v>144</v>
+        <v>2242</v>
       </c>
       <c r="BC6">
-        <v>154</v>
+        <v>2029</v>
       </c>
       <c r="BD6">
-        <v>139</v>
+        <v>1908</v>
       </c>
       <c r="BE6">
-        <v>118</v>
+        <v>1914</v>
       </c>
       <c r="BF6">
-        <v>73</v>
+        <v>1560</v>
       </c>
       <c r="BG6">
-        <v>64</v>
+        <v>1780</v>
       </c>
       <c r="BH6">
-        <v>81</v>
+        <v>2015</v>
       </c>
       <c r="BI6">
-        <v>96</v>
+        <v>2340</v>
       </c>
       <c r="BJ6">
-        <v>151</v>
+        <v>2951</v>
       </c>
       <c r="BK6">
-        <v>136</v>
+        <v>2801</v>
       </c>
       <c r="BL6">
-        <v>163</v>
+        <v>3030</v>
       </c>
       <c r="BM6">
-        <v>173</v>
+        <v>2956</v>
       </c>
       <c r="BN6">
-        <v>181</v>
+        <v>3133</v>
       </c>
       <c r="BO6">
-        <v>161</v>
+        <v>2964</v>
       </c>
       <c r="BP6">
-        <v>157</v>
+        <v>2770</v>
       </c>
       <c r="BQ6">
-        <v>33</v>
+        <v>702</v>
       </c>
       <c r="BR6">
-        <v>94</v>
+        <v>1497</v>
       </c>
       <c r="BS6">
-        <v>110</v>
+        <v>2202</v>
       </c>
       <c r="BT6">
-        <v>129</v>
+        <v>2321</v>
       </c>
       <c r="BU6">
-        <v>148</v>
+        <v>2418</v>
       </c>
       <c r="BV6">
-        <v>136</v>
+        <v>3329</v>
       </c>
       <c r="BW6">
-        <v>172</v>
+        <v>3380</v>
       </c>
       <c r="BX6">
-        <v>160</v>
+        <v>3172</v>
       </c>
       <c r="BY6">
-        <v>176</v>
+        <v>2830</v>
       </c>
       <c r="BZ6">
-        <v>208</v>
+        <v>3029</v>
       </c>
       <c r="CA6">
-        <v>157</v>
+        <v>2771</v>
       </c>
       <c r="CB6">
-        <v>133</v>
+        <v>2659</v>
       </c>
       <c r="CC6">
-        <v>162</v>
+        <v>2721</v>
       </c>
       <c r="CD6">
-        <v>125</v>
+        <v>2389</v>
       </c>
       <c r="CE6">
-        <v>166</v>
+        <v>2985</v>
       </c>
       <c r="CF6">
-        <v>119</v>
+        <v>2006</v>
       </c>
       <c r="CG6">
-        <v>85</v>
+        <v>1564</v>
       </c>
       <c r="CH6">
-        <v>210</v>
+        <v>4370</v>
       </c>
       <c r="CI6">
-        <v>177</v>
+        <v>4539</v>
       </c>
       <c r="CJ6">
-        <v>192</v>
+        <v>4567</v>
       </c>
       <c r="CK6">
-        <v>178</v>
+        <v>3749</v>
       </c>
       <c r="CL6">
-        <v>206</v>
+        <v>4641</v>
       </c>
       <c r="CM6">
-        <v>188</v>
+        <v>3958</v>
       </c>
       <c r="CN6">
-        <v>186</v>
+        <v>3583</v>
       </c>
       <c r="CO6">
-        <v>187</v>
+        <v>4051</v>
       </c>
       <c r="CP6">
-        <v>140</v>
+        <v>3400</v>
       </c>
       <c r="CQ6">
-        <v>169</v>
+        <v>3835</v>
       </c>
       <c r="CR6">
-        <v>149</v>
+        <v>2780</v>
       </c>
       <c r="CS6">
-        <v>181</v>
+        <v>3565</v>
       </c>
       <c r="CT6">
-        <v>154</v>
+        <v>4463</v>
       </c>
       <c r="CU6">
-        <v>150</v>
+        <v>4514</v>
       </c>
       <c r="CV6">
-        <v>222</v>
+        <v>5725</v>
       </c>
       <c r="CW6">
-        <v>157</v>
+        <v>4389</v>
       </c>
       <c r="CX6">
-        <v>165</v>
+        <v>4849</v>
       </c>
       <c r="CY6">
-        <v>201</v>
+        <v>4701</v>
       </c>
       <c r="CZ6">
-        <v>194</v>
+        <v>4271</v>
       </c>
       <c r="DA6">
-        <v>144</v>
+        <v>3452</v>
       </c>
       <c r="DB6">
-        <v>217</v>
+        <v>4862</v>
       </c>
       <c r="DC6">
-        <v>186</v>
+        <v>4369</v>
       </c>
       <c r="DD6">
-        <v>153</v>
+        <v>4147</v>
       </c>
       <c r="DE6">
-        <v>199</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="7" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>1141</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>1214</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>1498</v>
       </c>
       <c r="E7">
-        <v>55</v>
+        <v>1685</v>
       </c>
       <c r="F7">
-        <v>48</v>
+        <v>1817</v>
       </c>
       <c r="G7">
-        <v>48</v>
+        <v>1512</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>1686</v>
       </c>
       <c r="I7">
-        <v>51</v>
+        <v>1526</v>
       </c>
       <c r="J7">
-        <v>44</v>
+        <v>1035</v>
       </c>
       <c r="K7">
-        <v>31</v>
+        <v>1152</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>788</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>796</v>
       </c>
       <c r="N7">
-        <v>57</v>
+        <v>1369</v>
       </c>
       <c r="O7">
-        <v>55</v>
+        <v>1490</v>
       </c>
       <c r="P7">
-        <v>50</v>
+        <v>1368</v>
       </c>
       <c r="Q7">
-        <v>52</v>
+        <v>1348</v>
       </c>
       <c r="R7">
-        <v>44</v>
+        <v>1418</v>
       </c>
       <c r="S7">
-        <v>45</v>
+        <v>1376</v>
       </c>
       <c r="T7">
-        <v>48</v>
+        <v>1411</v>
       </c>
       <c r="U7">
-        <v>49</v>
+        <v>1443</v>
       </c>
       <c r="V7">
-        <v>51</v>
+        <v>1269</v>
       </c>
       <c r="W7">
-        <v>66</v>
+        <v>1551</v>
       </c>
       <c r="X7">
-        <v>42</v>
+        <v>1022</v>
       </c>
       <c r="Y7">
-        <v>54</v>
+        <v>1074</v>
       </c>
       <c r="Z7">
-        <v>51</v>
+        <v>1458</v>
       </c>
       <c r="AA7">
-        <v>67</v>
+        <v>1613</v>
       </c>
       <c r="AB7">
-        <v>72</v>
+        <v>1823</v>
       </c>
       <c r="AC7">
-        <v>50</v>
+        <v>1435</v>
       </c>
       <c r="AD7">
-        <v>47</v>
+        <v>1589</v>
       </c>
       <c r="AE7">
-        <v>35</v>
+        <v>1531</v>
       </c>
       <c r="AF7">
-        <v>61</v>
+        <v>1393</v>
       </c>
       <c r="AG7">
-        <v>57</v>
+        <v>1628</v>
       </c>
       <c r="AH7">
-        <v>50</v>
+        <v>1694</v>
       </c>
       <c r="AI7">
-        <v>69</v>
+        <v>1709</v>
       </c>
       <c r="AJ7">
-        <v>41</v>
+        <v>1234</v>
       </c>
       <c r="AK7">
-        <v>53</v>
+        <v>1308</v>
       </c>
       <c r="AL7">
-        <v>49</v>
+        <v>1138</v>
       </c>
       <c r="AM7">
-        <v>47</v>
+        <v>1427</v>
       </c>
       <c r="AN7">
-        <v>66</v>
+        <v>1763</v>
       </c>
       <c r="AO7">
-        <v>56</v>
+        <v>1591</v>
       </c>
       <c r="AP7">
-        <v>62</v>
+        <v>1829</v>
       </c>
       <c r="AQ7">
-        <v>68</v>
+        <v>1782</v>
       </c>
       <c r="AR7">
-        <v>68</v>
+        <v>1593</v>
       </c>
       <c r="AS7">
-        <v>83</v>
+        <v>1897</v>
       </c>
       <c r="AT7">
-        <v>64</v>
+        <v>1840</v>
       </c>
       <c r="AU7">
-        <v>60</v>
+        <v>1459</v>
       </c>
       <c r="AV7">
-        <v>56</v>
+        <v>1540</v>
       </c>
       <c r="AW7">
-        <v>170</v>
+        <v>1592</v>
       </c>
       <c r="AX7">
-        <v>141</v>
+        <v>2530</v>
       </c>
       <c r="AY7">
-        <v>154</v>
+        <v>2483</v>
       </c>
       <c r="AZ7">
-        <v>123</v>
+        <v>2489</v>
       </c>
       <c r="BA7">
-        <v>138</v>
+        <v>2431</v>
       </c>
       <c r="BB7">
-        <v>162</v>
+        <v>2070</v>
       </c>
       <c r="BC7">
-        <v>147</v>
+        <v>1815</v>
       </c>
       <c r="BD7">
-        <v>120</v>
+        <v>1950</v>
       </c>
       <c r="BE7">
-        <v>32</v>
+        <v>1673</v>
       </c>
       <c r="BF7">
-        <v>33</v>
+        <v>1331</v>
       </c>
       <c r="BG7">
-        <v>65</v>
+        <v>1245</v>
       </c>
       <c r="BH7">
-        <v>61</v>
+        <v>1420</v>
       </c>
       <c r="BI7">
-        <v>47</v>
+        <v>1490</v>
       </c>
       <c r="BJ7">
-        <v>165</v>
+        <v>2726</v>
       </c>
       <c r="BK7">
-        <v>129</v>
+        <v>2852</v>
       </c>
       <c r="BL7">
-        <v>140</v>
+        <v>3130</v>
       </c>
       <c r="BM7">
-        <v>150</v>
+        <v>2996</v>
       </c>
       <c r="BN7">
-        <v>171</v>
+        <v>3136</v>
       </c>
       <c r="BO7">
-        <v>118</v>
+        <v>3074</v>
       </c>
       <c r="BP7">
-        <v>138</v>
+        <v>2822</v>
       </c>
       <c r="BQ7">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="BR7">
-        <v>68</v>
+        <v>1764</v>
       </c>
       <c r="BS7">
-        <v>86</v>
+        <v>2554</v>
       </c>
       <c r="BT7">
-        <v>132</v>
+        <v>2223</v>
       </c>
       <c r="BU7">
-        <v>159</v>
+        <v>2361</v>
       </c>
       <c r="BV7">
-        <v>97</v>
+        <v>3504</v>
       </c>
       <c r="BW7">
-        <v>93</v>
+        <v>3610</v>
       </c>
       <c r="BX7">
-        <v>110</v>
+        <v>3681</v>
       </c>
       <c r="BY7">
-        <v>93</v>
+        <v>3205</v>
       </c>
       <c r="BZ7">
-        <v>202</v>
+        <v>3358</v>
       </c>
       <c r="CA7">
-        <v>171</v>
+        <v>3030</v>
       </c>
       <c r="CB7">
-        <v>154</v>
+        <v>2772</v>
       </c>
       <c r="CC7">
-        <v>138</v>
+        <v>2671</v>
       </c>
       <c r="CD7">
-        <v>154</v>
+        <v>2506</v>
       </c>
       <c r="CE7">
-        <v>182</v>
+        <v>3205</v>
       </c>
       <c r="CF7">
-        <v>108</v>
+        <v>2261</v>
       </c>
       <c r="CG7">
-        <v>91</v>
+        <v>1686</v>
       </c>
       <c r="CH7">
-        <v>130</v>
+        <v>5139</v>
       </c>
       <c r="CI7">
-        <v>129</v>
+        <v>5402</v>
       </c>
       <c r="CJ7">
-        <v>124</v>
+        <v>5342</v>
       </c>
       <c r="CK7">
-        <v>116</v>
+        <v>4322</v>
       </c>
       <c r="CL7">
-        <v>136</v>
+        <v>5195</v>
       </c>
       <c r="CM7">
-        <v>107</v>
+        <v>4304</v>
       </c>
       <c r="CN7">
-        <v>96</v>
+        <v>4154</v>
       </c>
       <c r="CO7">
-        <v>102</v>
+        <v>4466</v>
       </c>
       <c r="CP7">
-        <v>71</v>
+        <v>3811</v>
       </c>
       <c r="CQ7">
-        <v>97</v>
+        <v>4601</v>
       </c>
       <c r="CR7">
-        <v>76</v>
+        <v>3417</v>
       </c>
       <c r="CS7">
-        <v>93</v>
+        <v>4118</v>
       </c>
       <c r="CT7">
-        <v>171</v>
+        <v>5037</v>
       </c>
       <c r="CU7">
-        <v>146</v>
+        <v>5250</v>
       </c>
       <c r="CV7">
-        <v>202</v>
+        <v>6308</v>
       </c>
       <c r="CW7">
-        <v>147</v>
+        <v>5031</v>
       </c>
       <c r="CX7">
-        <v>173</v>
+        <v>5584</v>
       </c>
       <c r="CY7">
-        <v>131</v>
+        <v>5477</v>
       </c>
       <c r="CZ7">
-        <v>142</v>
+        <v>5189</v>
       </c>
       <c r="DA7">
-        <v>110</v>
+        <v>4474</v>
       </c>
       <c r="DB7">
-        <v>137</v>
+        <v>5844</v>
       </c>
       <c r="DC7">
-        <v>141</v>
+        <v>5139</v>
       </c>
       <c r="DD7">
-        <v>116</v>
+        <v>4873</v>
       </c>
       <c r="DE7">
-        <v>121</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="8" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="C8">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="E8">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="F8">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="G8">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="H8">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="I8">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="J8">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="K8">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="L8">
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <v>79</v>
+      </c>
+      <c r="N8">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>109</v>
+      </c>
+      <c r="P8">
+        <v>111</v>
+      </c>
+      <c r="Q8">
+        <v>98</v>
+      </c>
+      <c r="R8">
+        <v>135</v>
+      </c>
+      <c r="S8">
+        <v>120</v>
+      </c>
+      <c r="T8">
+        <v>122</v>
+      </c>
+      <c r="U8">
+        <v>121</v>
+      </c>
+      <c r="V8">
+        <v>112</v>
+      </c>
+      <c r="W8">
+        <v>140</v>
+      </c>
+      <c r="X8">
+        <v>85</v>
+      </c>
+      <c r="Y8">
+        <v>102</v>
+      </c>
+      <c r="Z8">
+        <v>78</v>
+      </c>
+      <c r="AA8">
+        <v>118</v>
+      </c>
+      <c r="AB8">
+        <v>118</v>
+      </c>
+      <c r="AC8">
+        <v>119</v>
+      </c>
+      <c r="AD8">
+        <v>134</v>
+      </c>
+      <c r="AE8">
+        <v>142</v>
+      </c>
+      <c r="AF8">
+        <v>109</v>
+      </c>
+      <c r="AG8">
+        <v>150</v>
+      </c>
+      <c r="AH8">
+        <v>152</v>
+      </c>
+      <c r="AI8">
+        <v>140</v>
+      </c>
+      <c r="AJ8">
+        <v>95</v>
+      </c>
+      <c r="AK8">
+        <v>88</v>
+      </c>
+      <c r="AL8">
+        <v>88</v>
+      </c>
+      <c r="AM8">
+        <v>85</v>
+      </c>
+      <c r="AN8">
+        <v>118</v>
+      </c>
+      <c r="AO8">
+        <v>124</v>
+      </c>
+      <c r="AP8">
+        <v>135</v>
+      </c>
+      <c r="AQ8">
+        <v>122</v>
+      </c>
+      <c r="AR8">
+        <v>113</v>
+      </c>
+      <c r="AS8">
+        <v>153</v>
+      </c>
+      <c r="AT8">
+        <v>149</v>
+      </c>
+      <c r="AU8">
+        <v>100</v>
+      </c>
+      <c r="AV8">
+        <v>108</v>
+      </c>
+      <c r="AW8">
+        <v>137</v>
+      </c>
+      <c r="AX8">
+        <v>145</v>
+      </c>
+      <c r="AY8">
+        <v>177</v>
+      </c>
+      <c r="AZ8">
+        <v>154</v>
+      </c>
+      <c r="BA8">
+        <v>166</v>
+      </c>
+      <c r="BB8">
+        <v>144</v>
+      </c>
+      <c r="BC8">
+        <v>154</v>
+      </c>
+      <c r="BD8">
+        <v>139</v>
+      </c>
+      <c r="BE8">
+        <v>118</v>
+      </c>
+      <c r="BF8">
+        <v>73</v>
+      </c>
+      <c r="BG8">
+        <v>64</v>
+      </c>
+      <c r="BH8">
+        <v>81</v>
+      </c>
+      <c r="BI8">
+        <v>96</v>
+      </c>
+      <c r="BJ8">
+        <v>151</v>
+      </c>
+      <c r="BK8">
+        <v>136</v>
+      </c>
+      <c r="BL8">
+        <v>163</v>
+      </c>
+      <c r="BM8">
+        <v>173</v>
+      </c>
+      <c r="BN8">
+        <v>181</v>
+      </c>
+      <c r="BO8">
+        <v>161</v>
+      </c>
+      <c r="BP8">
+        <v>157</v>
+      </c>
+      <c r="BQ8">
+        <v>33</v>
+      </c>
+      <c r="BR8">
+        <v>94</v>
+      </c>
+      <c r="BS8">
+        <v>110</v>
+      </c>
+      <c r="BT8">
+        <v>129</v>
+      </c>
+      <c r="BU8">
+        <v>148</v>
+      </c>
+      <c r="BV8">
+        <v>136</v>
+      </c>
+      <c r="BW8">
         <v>172</v>
       </c>
-      <c r="M8">
-        <v>129</v>
-      </c>
-      <c r="N8">
-        <v>175</v>
-      </c>
-      <c r="O8">
-        <v>227</v>
-      </c>
-      <c r="P8">
-        <v>202</v>
-      </c>
-      <c r="Q8">
+      <c r="BX8">
+        <v>160</v>
+      </c>
+      <c r="BY8">
+        <v>176</v>
+      </c>
+      <c r="BZ8">
+        <v>208</v>
+      </c>
+      <c r="CA8">
+        <v>157</v>
+      </c>
+      <c r="CB8">
+        <v>133</v>
+      </c>
+      <c r="CC8">
+        <v>162</v>
+      </c>
+      <c r="CD8">
+        <v>125</v>
+      </c>
+      <c r="CE8">
+        <v>166</v>
+      </c>
+      <c r="CF8">
+        <v>119</v>
+      </c>
+      <c r="CG8">
+        <v>85</v>
+      </c>
+      <c r="CH8">
+        <v>210</v>
+      </c>
+      <c r="CI8">
+        <v>177</v>
+      </c>
+      <c r="CJ8">
+        <v>192</v>
+      </c>
+      <c r="CK8">
+        <v>178</v>
+      </c>
+      <c r="CL8">
+        <v>206</v>
+      </c>
+      <c r="CM8">
+        <v>188</v>
+      </c>
+      <c r="CN8">
+        <v>186</v>
+      </c>
+      <c r="CO8">
+        <v>187</v>
+      </c>
+      <c r="CP8">
+        <v>140</v>
+      </c>
+      <c r="CQ8">
+        <v>169</v>
+      </c>
+      <c r="CR8">
+        <v>149</v>
+      </c>
+      <c r="CS8">
+        <v>181</v>
+      </c>
+      <c r="CT8">
+        <v>154</v>
+      </c>
+      <c r="CU8">
+        <v>150</v>
+      </c>
+      <c r="CV8">
+        <v>222</v>
+      </c>
+      <c r="CW8">
+        <v>157</v>
+      </c>
+      <c r="CX8">
+        <v>165</v>
+      </c>
+      <c r="CY8">
+        <v>201</v>
+      </c>
+      <c r="CZ8">
+        <v>194</v>
+      </c>
+      <c r="DA8">
+        <v>144</v>
+      </c>
+      <c r="DB8">
+        <v>217</v>
+      </c>
+      <c r="DC8">
+        <v>186</v>
+      </c>
+      <c r="DD8">
+        <v>153</v>
+      </c>
+      <c r="DE8">
         <v>199</v>
-      </c>
-      <c r="R8">
-        <v>205</v>
-      </c>
-      <c r="S8">
-        <v>203</v>
-      </c>
-      <c r="T8">
-        <v>193</v>
-      </c>
-      <c r="U8">
-        <v>214</v>
-      </c>
-      <c r="V8">
-        <v>189</v>
-      </c>
-      <c r="W8">
-        <v>246</v>
-      </c>
-      <c r="X8">
-        <v>160</v>
-      </c>
-      <c r="Y8">
-        <v>166</v>
-      </c>
-      <c r="Z8">
-        <v>171</v>
-      </c>
-      <c r="AA8">
-        <v>206</v>
-      </c>
-      <c r="AB8">
-        <v>241</v>
-      </c>
-      <c r="AC8">
-        <v>198</v>
-      </c>
-      <c r="AD8">
-        <v>227</v>
-      </c>
-      <c r="AE8">
-        <v>197</v>
-      </c>
-      <c r="AF8">
-        <v>208</v>
-      </c>
-      <c r="AG8">
-        <v>247</v>
-      </c>
-      <c r="AH8">
-        <v>248</v>
-      </c>
-      <c r="AI8">
-        <v>210</v>
-      </c>
-      <c r="AJ8">
-        <v>164</v>
-      </c>
-      <c r="AK8">
-        <v>207</v>
-      </c>
-      <c r="AL8">
-        <v>152</v>
-      </c>
-      <c r="AM8">
-        <v>158</v>
-      </c>
-      <c r="AN8">
-        <v>196</v>
-      </c>
-      <c r="AO8">
-        <v>158</v>
-      </c>
-      <c r="AP8">
-        <v>230</v>
-      </c>
-      <c r="AQ8">
-        <v>250</v>
-      </c>
-      <c r="AR8">
-        <v>203</v>
-      </c>
-      <c r="AS8">
-        <v>265</v>
-      </c>
-      <c r="AT8">
-        <v>218</v>
-      </c>
-      <c r="AU8">
-        <v>200</v>
-      </c>
-      <c r="AV8">
-        <v>189</v>
-      </c>
-      <c r="AW8">
-        <v>208</v>
-      </c>
-      <c r="AX8">
-        <v>93</v>
-      </c>
-      <c r="AY8">
-        <v>109</v>
-      </c>
-      <c r="AZ8">
-        <v>142</v>
-      </c>
-      <c r="BA8">
-        <v>112</v>
-      </c>
-      <c r="BB8">
-        <v>123</v>
-      </c>
-      <c r="BC8">
-        <v>84</v>
-      </c>
-      <c r="BD8">
-        <v>77</v>
-      </c>
-      <c r="BE8">
-        <v>79</v>
-      </c>
-      <c r="BF8">
-        <v>59</v>
-      </c>
-      <c r="BG8">
-        <v>114</v>
-      </c>
-      <c r="BH8">
-        <v>132</v>
-      </c>
-      <c r="BI8">
-        <v>151</v>
-      </c>
-      <c r="BJ8">
-        <v>169</v>
-      </c>
-      <c r="BK8">
-        <v>173</v>
-      </c>
-      <c r="BL8">
-        <v>171</v>
-      </c>
-      <c r="BM8">
-        <v>145</v>
-      </c>
-      <c r="BN8">
-        <v>173</v>
-      </c>
-      <c r="BO8">
-        <v>149</v>
-      </c>
-      <c r="BP8">
-        <v>200</v>
-      </c>
-      <c r="BQ8">
-        <v>49</v>
-      </c>
-      <c r="BR8">
-        <v>74</v>
-      </c>
-      <c r="BS8">
-        <v>105</v>
-      </c>
-      <c r="BT8">
-        <v>116</v>
-      </c>
-      <c r="BU8">
-        <v>133</v>
-      </c>
-      <c r="BV8">
-        <v>175</v>
-      </c>
-      <c r="BW8">
-        <v>178</v>
-      </c>
-      <c r="BX8">
-        <v>197</v>
-      </c>
-      <c r="BY8">
-        <v>173</v>
-      </c>
-      <c r="BZ8">
-        <v>162</v>
-      </c>
-      <c r="CA8">
-        <v>149</v>
-      </c>
-      <c r="CB8">
-        <v>163</v>
-      </c>
-      <c r="CC8">
-        <v>145</v>
-      </c>
-      <c r="CD8">
-        <v>136</v>
-      </c>
-      <c r="CE8">
-        <v>201</v>
-      </c>
-      <c r="CF8">
-        <v>157</v>
-      </c>
-      <c r="CG8">
-        <v>95</v>
-      </c>
-      <c r="CH8">
-        <v>251</v>
-      </c>
-      <c r="CI8">
-        <v>268</v>
-      </c>
-      <c r="CJ8">
-        <v>250</v>
-      </c>
-      <c r="CK8">
-        <v>216</v>
-      </c>
-      <c r="CL8">
-        <v>288</v>
-      </c>
-      <c r="CM8">
-        <v>220</v>
-      </c>
-      <c r="CN8">
-        <v>229</v>
-      </c>
-      <c r="CO8">
-        <v>251</v>
-      </c>
-      <c r="CP8">
-        <v>178</v>
-      </c>
-      <c r="CQ8">
-        <v>220</v>
-      </c>
-      <c r="CR8">
-        <v>193</v>
-      </c>
-      <c r="CS8">
-        <v>229</v>
-      </c>
-      <c r="CT8">
-        <v>268</v>
-      </c>
-      <c r="CU8">
-        <v>311</v>
-      </c>
-      <c r="CV8">
-        <v>377</v>
-      </c>
-      <c r="CW8">
-        <v>292</v>
-      </c>
-      <c r="CX8">
-        <v>312</v>
-      </c>
-      <c r="CY8">
-        <v>282</v>
-      </c>
-      <c r="CZ8">
-        <v>259</v>
-      </c>
-      <c r="DA8">
-        <v>167</v>
-      </c>
-      <c r="DB8">
-        <v>307</v>
-      </c>
-      <c r="DC8">
-        <v>290</v>
-      </c>
-      <c r="DD8">
-        <v>266</v>
-      </c>
-      <c r="DE8">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="E9">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="G9">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="I9">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="J9">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
+        <v>52</v>
+      </c>
+      <c r="R9">
+        <v>44</v>
+      </c>
+      <c r="S9">
+        <v>45</v>
+      </c>
+      <c r="T9">
+        <v>48</v>
+      </c>
+      <c r="U9">
+        <v>49</v>
+      </c>
+      <c r="V9">
+        <v>51</v>
+      </c>
+      <c r="W9">
+        <v>66</v>
+      </c>
+      <c r="X9">
+        <v>42</v>
+      </c>
+      <c r="Y9">
+        <v>54</v>
+      </c>
+      <c r="Z9">
+        <v>51</v>
+      </c>
+      <c r="AA9">
+        <v>67</v>
+      </c>
+      <c r="AB9">
+        <v>72</v>
+      </c>
+      <c r="AC9">
+        <v>50</v>
+      </c>
+      <c r="AD9">
+        <v>47</v>
+      </c>
+      <c r="AE9">
+        <v>35</v>
+      </c>
+      <c r="AF9">
+        <v>61</v>
+      </c>
+      <c r="AG9">
+        <v>57</v>
+      </c>
+      <c r="AH9">
+        <v>50</v>
+      </c>
+      <c r="AI9">
+        <v>69</v>
+      </c>
+      <c r="AJ9">
+        <v>41</v>
+      </c>
+      <c r="AK9">
+        <v>53</v>
+      </c>
+      <c r="AL9">
+        <v>49</v>
+      </c>
+      <c r="AM9">
+        <v>47</v>
+      </c>
+      <c r="AN9">
+        <v>66</v>
+      </c>
+      <c r="AO9">
+        <v>56</v>
+      </c>
+      <c r="AP9">
+        <v>62</v>
+      </c>
+      <c r="AQ9">
+        <v>68</v>
+      </c>
+      <c r="AR9">
+        <v>68</v>
+      </c>
+      <c r="AS9">
+        <v>83</v>
+      </c>
+      <c r="AT9">
         <v>64</v>
       </c>
-      <c r="M9">
-        <v>58</v>
-      </c>
-      <c r="N9">
-        <v>173</v>
-      </c>
-      <c r="O9">
-        <v>187</v>
-      </c>
-      <c r="P9">
-        <v>153</v>
-      </c>
-      <c r="Q9">
-        <v>184</v>
-      </c>
-      <c r="R9">
-        <v>171</v>
-      </c>
-      <c r="S9">
-        <v>158</v>
-      </c>
-      <c r="T9">
-        <v>169</v>
-      </c>
-      <c r="U9">
-        <v>169</v>
-      </c>
-      <c r="V9">
-        <v>138</v>
-      </c>
-      <c r="W9">
-        <v>159</v>
-      </c>
-      <c r="X9">
-        <v>94</v>
-      </c>
-      <c r="Y9">
-        <v>101</v>
-      </c>
-      <c r="Z9">
-        <v>179</v>
-      </c>
-      <c r="AA9">
-        <v>263</v>
-      </c>
-      <c r="AB9">
-        <v>253</v>
-      </c>
-      <c r="AC9">
-        <v>208</v>
-      </c>
-      <c r="AD9">
-        <v>240</v>
-      </c>
-      <c r="AE9">
-        <v>210</v>
-      </c>
-      <c r="AF9">
-        <v>162</v>
-      </c>
-      <c r="AG9">
-        <v>235</v>
-      </c>
-      <c r="AH9">
-        <v>245</v>
-      </c>
-      <c r="AI9">
-        <v>204</v>
-      </c>
-      <c r="AJ9">
-        <v>128</v>
-      </c>
-      <c r="AK9">
-        <v>158</v>
-      </c>
-      <c r="AL9">
-        <v>171</v>
-      </c>
-      <c r="AM9">
-        <v>204</v>
-      </c>
-      <c r="AN9">
-        <v>223</v>
-      </c>
-      <c r="AO9">
-        <v>224</v>
-      </c>
-      <c r="AP9">
-        <v>276</v>
-      </c>
-      <c r="AQ9">
-        <v>305</v>
-      </c>
-      <c r="AR9">
-        <v>264</v>
-      </c>
-      <c r="AS9">
-        <v>322</v>
-      </c>
-      <c r="AT9">
-        <v>259</v>
-      </c>
       <c r="AU9">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="AV9">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="AW9">
         <v>170</v>
       </c>
       <c r="AX9">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="AY9">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="AZ9">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="BA9">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="BB9">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="BC9">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="BD9">
+        <v>120</v>
+      </c>
+      <c r="BE9">
+        <v>32</v>
+      </c>
+      <c r="BF9">
+        <v>33</v>
+      </c>
+      <c r="BG9">
+        <v>65</v>
+      </c>
+      <c r="BH9">
+        <v>61</v>
+      </c>
+      <c r="BI9">
+        <v>47</v>
+      </c>
+      <c r="BJ9">
+        <v>165</v>
+      </c>
+      <c r="BK9">
+        <v>129</v>
+      </c>
+      <c r="BL9">
+        <v>140</v>
+      </c>
+      <c r="BM9">
+        <v>150</v>
+      </c>
+      <c r="BN9">
+        <v>171</v>
+      </c>
+      <c r="BO9">
+        <v>118</v>
+      </c>
+      <c r="BP9">
+        <v>138</v>
+      </c>
+      <c r="BQ9">
+        <v>23</v>
+      </c>
+      <c r="BR9">
+        <v>68</v>
+      </c>
+      <c r="BS9">
+        <v>86</v>
+      </c>
+      <c r="BT9">
+        <v>132</v>
+      </c>
+      <c r="BU9">
+        <v>159</v>
+      </c>
+      <c r="BV9">
+        <v>97</v>
+      </c>
+      <c r="BW9">
+        <v>93</v>
+      </c>
+      <c r="BX9">
+        <v>110</v>
+      </c>
+      <c r="BY9">
+        <v>93</v>
+      </c>
+      <c r="BZ9">
+        <v>202</v>
+      </c>
+      <c r="CA9">
+        <v>171</v>
+      </c>
+      <c r="CB9">
+        <v>154</v>
+      </c>
+      <c r="CC9">
+        <v>138</v>
+      </c>
+      <c r="CD9">
+        <v>154</v>
+      </c>
+      <c r="CE9">
+        <v>182</v>
+      </c>
+      <c r="CF9">
+        <v>108</v>
+      </c>
+      <c r="CG9">
         <v>91</v>
       </c>
-      <c r="BE9">
+      <c r="CH9">
+        <v>130</v>
+      </c>
+      <c r="CI9">
+        <v>129</v>
+      </c>
+      <c r="CJ9">
+        <v>124</v>
+      </c>
+      <c r="CK9">
+        <v>116</v>
+      </c>
+      <c r="CL9">
+        <v>136</v>
+      </c>
+      <c r="CM9">
+        <v>107</v>
+      </c>
+      <c r="CN9">
         <v>96</v>
       </c>
-      <c r="BF9">
-        <v>56</v>
-      </c>
-      <c r="BG9">
-        <v>135</v>
-      </c>
-      <c r="BH9">
-        <v>127</v>
-      </c>
-      <c r="BI9">
-        <v>184</v>
-      </c>
-      <c r="BJ9">
-        <v>389</v>
-      </c>
-      <c r="BK9">
-        <v>385</v>
-      </c>
-      <c r="BL9">
-        <v>397</v>
-      </c>
-      <c r="BM9">
-        <v>381</v>
-      </c>
-      <c r="BN9">
-        <v>366</v>
-      </c>
-      <c r="BO9">
-        <v>378</v>
-      </c>
-      <c r="BP9">
-        <v>293</v>
-      </c>
-      <c r="BQ9">
-        <v>72</v>
-      </c>
-      <c r="BR9">
-        <v>162</v>
-      </c>
-      <c r="BS9">
-        <v>170</v>
-      </c>
-      <c r="BT9">
-        <v>245</v>
-      </c>
-      <c r="BU9">
-        <v>218</v>
-      </c>
-      <c r="BV9">
-        <v>446</v>
-      </c>
-      <c r="BW9">
-        <v>453</v>
-      </c>
-      <c r="BX9">
-        <v>481</v>
-      </c>
-      <c r="BY9">
-        <v>497</v>
-      </c>
-      <c r="BZ9">
-        <v>508</v>
-      </c>
-      <c r="CA9">
-        <v>406</v>
-      </c>
-      <c r="CB9">
-        <v>459</v>
-      </c>
-      <c r="CC9">
-        <v>401</v>
-      </c>
-      <c r="CD9">
-        <v>344</v>
-      </c>
-      <c r="CE9">
-        <v>475</v>
-      </c>
-      <c r="CF9">
-        <v>314</v>
-      </c>
-      <c r="CG9">
-        <v>200</v>
-      </c>
-      <c r="CH9">
-        <v>822</v>
-      </c>
-      <c r="CI9">
-        <v>880</v>
-      </c>
-      <c r="CJ9">
-        <v>946</v>
-      </c>
-      <c r="CK9">
-        <v>683</v>
-      </c>
-      <c r="CL9">
-        <v>914</v>
-      </c>
-      <c r="CM9">
-        <v>750</v>
-      </c>
-      <c r="CN9">
-        <v>719</v>
-      </c>
       <c r="CO9">
-        <v>882</v>
+        <v>102</v>
       </c>
       <c r="CP9">
-        <v>566</v>
+        <v>71</v>
       </c>
       <c r="CQ9">
-        <v>609</v>
+        <v>97</v>
       </c>
       <c r="CR9">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="CS9">
-        <v>509</v>
+        <v>93</v>
       </c>
       <c r="CT9">
-        <v>965</v>
+        <v>171</v>
       </c>
       <c r="CU9">
-        <v>1093</v>
+        <v>146</v>
       </c>
       <c r="CV9">
-        <v>1308</v>
+        <v>202</v>
       </c>
       <c r="CW9">
-        <v>967</v>
+        <v>147</v>
       </c>
       <c r="CX9">
-        <v>1124</v>
+        <v>173</v>
       </c>
       <c r="CY9">
-        <v>1105</v>
+        <v>131</v>
       </c>
       <c r="CZ9">
-        <v>871</v>
+        <v>142</v>
       </c>
       <c r="DA9">
-        <v>590</v>
+        <v>110</v>
       </c>
       <c r="DB9">
-        <v>1162</v>
+        <v>137</v>
       </c>
       <c r="DC9">
-        <v>955</v>
+        <v>141</v>
       </c>
       <c r="DD9">
-        <v>801</v>
+        <v>116</v>
       </c>
       <c r="DE9">
-        <v>855</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C10">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>239</v>
+      </c>
+      <c r="E10">
+        <v>242</v>
+      </c>
+      <c r="F10">
         <v>290</v>
       </c>
-      <c r="D10">
-        <v>433</v>
-      </c>
-      <c r="E10">
-        <v>412</v>
-      </c>
-      <c r="F10">
-        <v>406</v>
-      </c>
       <c r="G10">
-        <v>403</v>
+        <v>256</v>
       </c>
       <c r="H10">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="I10">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="J10">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="K10">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="L10">
+        <v>172</v>
+      </c>
+      <c r="M10">
+        <v>129</v>
+      </c>
+      <c r="N10">
+        <v>175</v>
+      </c>
+      <c r="O10">
+        <v>227</v>
+      </c>
+      <c r="P10">
+        <v>202</v>
+      </c>
+      <c r="Q10">
+        <v>199</v>
+      </c>
+      <c r="R10">
+        <v>205</v>
+      </c>
+      <c r="S10">
+        <v>203</v>
+      </c>
+      <c r="T10">
+        <v>193</v>
+      </c>
+      <c r="U10">
+        <v>214</v>
+      </c>
+      <c r="V10">
+        <v>189</v>
+      </c>
+      <c r="W10">
+        <v>246</v>
+      </c>
+      <c r="X10">
+        <v>160</v>
+      </c>
+      <c r="Y10">
+        <v>166</v>
+      </c>
+      <c r="Z10">
+        <v>171</v>
+      </c>
+      <c r="AA10">
+        <v>206</v>
+      </c>
+      <c r="AB10">
+        <v>241</v>
+      </c>
+      <c r="AC10">
+        <v>198</v>
+      </c>
+      <c r="AD10">
+        <v>227</v>
+      </c>
+      <c r="AE10">
+        <v>197</v>
+      </c>
+      <c r="AF10">
+        <v>208</v>
+      </c>
+      <c r="AG10">
+        <v>247</v>
+      </c>
+      <c r="AH10">
+        <v>248</v>
+      </c>
+      <c r="AI10">
+        <v>210</v>
+      </c>
+      <c r="AJ10">
+        <v>164</v>
+      </c>
+      <c r="AK10">
+        <v>207</v>
+      </c>
+      <c r="AL10">
+        <v>152</v>
+      </c>
+      <c r="AM10">
+        <v>158</v>
+      </c>
+      <c r="AN10">
+        <v>196</v>
+      </c>
+      <c r="AO10">
+        <v>158</v>
+      </c>
+      <c r="AP10">
+        <v>230</v>
+      </c>
+      <c r="AQ10">
+        <v>250</v>
+      </c>
+      <c r="AR10">
+        <v>203</v>
+      </c>
+      <c r="AS10">
+        <v>265</v>
+      </c>
+      <c r="AT10">
         <v>218</v>
       </c>
-      <c r="M10">
-        <v>225</v>
-      </c>
-      <c r="N10">
-        <v>277</v>
-      </c>
-      <c r="O10">
-        <v>332</v>
-      </c>
-      <c r="P10">
-        <v>328</v>
-      </c>
-      <c r="Q10">
-        <v>346</v>
-      </c>
-      <c r="R10">
-        <v>381</v>
-      </c>
-      <c r="S10">
-        <v>340</v>
-      </c>
-      <c r="T10">
-        <v>308</v>
-      </c>
-      <c r="U10">
-        <v>355</v>
-      </c>
-      <c r="V10">
-        <v>325</v>
-      </c>
-      <c r="W10">
-        <v>348</v>
-      </c>
-      <c r="X10">
-        <v>203</v>
-      </c>
-      <c r="Y10">
-        <v>247</v>
-      </c>
-      <c r="Z10">
-        <v>286</v>
-      </c>
-      <c r="AA10">
-        <v>355</v>
-      </c>
-      <c r="AB10">
-        <v>477</v>
-      </c>
-      <c r="AC10">
-        <v>353</v>
-      </c>
-      <c r="AD10">
-        <v>413</v>
-      </c>
-      <c r="AE10">
-        <v>327</v>
-      </c>
-      <c r="AF10">
-        <v>337</v>
-      </c>
-      <c r="AG10">
-        <v>397</v>
-      </c>
-      <c r="AH10">
-        <v>422</v>
-      </c>
-      <c r="AI10">
-        <v>358</v>
-      </c>
-      <c r="AJ10">
+      <c r="AU10">
+        <v>200</v>
+      </c>
+      <c r="AV10">
+        <v>189</v>
+      </c>
+      <c r="AW10">
+        <v>208</v>
+      </c>
+      <c r="AX10">
+        <v>93</v>
+      </c>
+      <c r="AY10">
+        <v>109</v>
+      </c>
+      <c r="AZ10">
+        <v>142</v>
+      </c>
+      <c r="BA10">
+        <v>112</v>
+      </c>
+      <c r="BB10">
+        <v>123</v>
+      </c>
+      <c r="BC10">
+        <v>84</v>
+      </c>
+      <c r="BD10">
+        <v>77</v>
+      </c>
+      <c r="BE10">
+        <v>79</v>
+      </c>
+      <c r="BF10">
+        <v>59</v>
+      </c>
+      <c r="BG10">
+        <v>114</v>
+      </c>
+      <c r="BH10">
+        <v>132</v>
+      </c>
+      <c r="BI10">
+        <v>151</v>
+      </c>
+      <c r="BJ10">
+        <v>169</v>
+      </c>
+      <c r="BK10">
+        <v>173</v>
+      </c>
+      <c r="BL10">
+        <v>171</v>
+      </c>
+      <c r="BM10">
+        <v>145</v>
+      </c>
+      <c r="BN10">
+        <v>173</v>
+      </c>
+      <c r="BO10">
+        <v>149</v>
+      </c>
+      <c r="BP10">
+        <v>200</v>
+      </c>
+      <c r="BQ10">
+        <v>49</v>
+      </c>
+      <c r="BR10">
+        <v>74</v>
+      </c>
+      <c r="BS10">
+        <v>105</v>
+      </c>
+      <c r="BT10">
+        <v>116</v>
+      </c>
+      <c r="BU10">
+        <v>133</v>
+      </c>
+      <c r="BV10">
+        <v>175</v>
+      </c>
+      <c r="BW10">
+        <v>178</v>
+      </c>
+      <c r="BX10">
+        <v>197</v>
+      </c>
+      <c r="BY10">
+        <v>173</v>
+      </c>
+      <c r="BZ10">
+        <v>162</v>
+      </c>
+      <c r="CA10">
+        <v>149</v>
+      </c>
+      <c r="CB10">
+        <v>163</v>
+      </c>
+      <c r="CC10">
+        <v>145</v>
+      </c>
+      <c r="CD10">
+        <v>136</v>
+      </c>
+      <c r="CE10">
+        <v>201</v>
+      </c>
+      <c r="CF10">
+        <v>157</v>
+      </c>
+      <c r="CG10">
+        <v>95</v>
+      </c>
+      <c r="CH10">
+        <v>251</v>
+      </c>
+      <c r="CI10">
+        <v>268</v>
+      </c>
+      <c r="CJ10">
         <v>250</v>
       </c>
-      <c r="AK10">
-        <v>315</v>
-      </c>
-      <c r="AL10">
-        <v>297</v>
-      </c>
-      <c r="AM10">
-        <v>347</v>
-      </c>
-      <c r="AN10">
-        <v>472</v>
-      </c>
-      <c r="AO10">
-        <v>424</v>
-      </c>
-      <c r="AP10">
-        <v>586</v>
-      </c>
-      <c r="AQ10">
-        <v>520</v>
-      </c>
-      <c r="AR10">
-        <v>436</v>
-      </c>
-      <c r="AS10">
-        <v>565</v>
-      </c>
-      <c r="AT10">
-        <v>379</v>
-      </c>
-      <c r="AU10">
-        <v>314</v>
-      </c>
-      <c r="AV10">
-        <v>314</v>
-      </c>
-      <c r="AW10">
-        <v>313</v>
-      </c>
-      <c r="AX10">
-        <v>267</v>
-      </c>
-      <c r="AY10">
-        <v>270</v>
-      </c>
-      <c r="AZ10">
-        <v>353</v>
-      </c>
-      <c r="BA10">
-        <v>298</v>
-      </c>
-      <c r="BB10">
-        <v>245</v>
-      </c>
-      <c r="BC10">
-        <v>223</v>
-      </c>
-      <c r="BD10">
+      <c r="CK10">
+        <v>216</v>
+      </c>
+      <c r="CL10">
+        <v>288</v>
+      </c>
+      <c r="CM10">
+        <v>220</v>
+      </c>
+      <c r="CN10">
         <v>229</v>
       </c>
-      <c r="BE10">
-        <v>182</v>
-      </c>
-      <c r="BF10">
-        <v>168</v>
-      </c>
-      <c r="BG10">
-        <v>253</v>
-      </c>
-      <c r="BH10">
-        <v>271</v>
-      </c>
-      <c r="BI10">
-        <v>387</v>
-      </c>
-      <c r="BJ10">
-        <v>431</v>
-      </c>
-      <c r="BK10">
-        <v>449</v>
-      </c>
-      <c r="BL10">
-        <v>417</v>
-      </c>
-      <c r="BM10">
-        <v>415</v>
-      </c>
-      <c r="BN10">
-        <v>438</v>
-      </c>
-      <c r="BO10">
-        <v>413</v>
-      </c>
-      <c r="BP10">
-        <v>334</v>
-      </c>
-      <c r="BQ10">
-        <v>80</v>
-      </c>
-      <c r="BR10">
-        <v>227</v>
-      </c>
-      <c r="BS10">
-        <v>261</v>
-      </c>
-      <c r="BT10">
-        <v>261</v>
-      </c>
-      <c r="BU10">
-        <v>261</v>
-      </c>
-      <c r="BV10">
-        <v>422</v>
-      </c>
-      <c r="BW10">
-        <v>475</v>
-      </c>
-      <c r="BX10">
-        <v>520</v>
-      </c>
-      <c r="BY10">
-        <v>482</v>
-      </c>
-      <c r="BZ10">
-        <v>482</v>
-      </c>
-      <c r="CA10">
-        <v>442</v>
-      </c>
-      <c r="CB10">
-        <v>486</v>
-      </c>
-      <c r="CC10">
-        <v>421</v>
-      </c>
-      <c r="CD10">
-        <v>328</v>
-      </c>
-      <c r="CE10">
-        <v>438</v>
-      </c>
-      <c r="CF10">
-        <v>293</v>
-      </c>
-      <c r="CG10">
-        <v>238</v>
-      </c>
-      <c r="CH10">
-        <v>648</v>
-      </c>
-      <c r="CI10">
-        <v>741</v>
-      </c>
-      <c r="CJ10">
-        <v>816</v>
-      </c>
-      <c r="CK10">
-        <v>625</v>
-      </c>
-      <c r="CL10">
-        <v>781</v>
-      </c>
-      <c r="CM10">
-        <v>595</v>
-      </c>
-      <c r="CN10">
-        <v>574</v>
-      </c>
       <c r="CO10">
-        <v>627</v>
+        <v>251</v>
       </c>
       <c r="CP10">
-        <v>518</v>
+        <v>178</v>
       </c>
       <c r="CQ10">
-        <v>594</v>
+        <v>220</v>
       </c>
       <c r="CR10">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="CS10">
-        <v>431</v>
+        <v>229</v>
       </c>
       <c r="CT10">
-        <v>816</v>
+        <v>268</v>
       </c>
       <c r="CU10">
-        <v>922</v>
+        <v>311</v>
       </c>
       <c r="CV10">
-        <v>1159</v>
+        <v>377</v>
       </c>
       <c r="CW10">
-        <v>923</v>
+        <v>292</v>
       </c>
       <c r="CX10">
-        <v>882</v>
+        <v>312</v>
       </c>
       <c r="CY10">
-        <v>842</v>
+        <v>282</v>
       </c>
       <c r="CZ10">
-        <v>699</v>
+        <v>259</v>
       </c>
       <c r="DA10">
-        <v>467</v>
+        <v>167</v>
       </c>
       <c r="DB10">
-        <v>889</v>
+        <v>307</v>
       </c>
       <c r="DC10">
-        <v>762</v>
+        <v>290</v>
       </c>
       <c r="DD10">
-        <v>613</v>
+        <v>266</v>
       </c>
       <c r="DE10">
-        <v>625</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C11">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E11">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="F11">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G11">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I11">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J11">
+        <v>86</v>
+      </c>
+      <c r="K11">
         <v>80</v>
       </c>
-      <c r="K11">
-        <v>188</v>
-      </c>
       <c r="L11">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="M11">
+        <v>58</v>
+      </c>
+      <c r="N11">
+        <v>173</v>
+      </c>
+      <c r="O11">
+        <v>187</v>
+      </c>
+      <c r="P11">
+        <v>153</v>
+      </c>
+      <c r="Q11">
+        <v>184</v>
+      </c>
+      <c r="R11">
+        <v>171</v>
+      </c>
+      <c r="S11">
+        <v>158</v>
+      </c>
+      <c r="T11">
+        <v>169</v>
+      </c>
+      <c r="U11">
+        <v>169</v>
+      </c>
+      <c r="V11">
+        <v>138</v>
+      </c>
+      <c r="W11">
+        <v>159</v>
+      </c>
+      <c r="X11">
+        <v>94</v>
+      </c>
+      <c r="Y11">
+        <v>101</v>
+      </c>
+      <c r="Z11">
+        <v>179</v>
+      </c>
+      <c r="AA11">
+        <v>263</v>
+      </c>
+      <c r="AB11">
+        <v>253</v>
+      </c>
+      <c r="AC11">
+        <v>208</v>
+      </c>
+      <c r="AD11">
+        <v>240</v>
+      </c>
+      <c r="AE11">
+        <v>210</v>
+      </c>
+      <c r="AF11">
+        <v>162</v>
+      </c>
+      <c r="AG11">
+        <v>235</v>
+      </c>
+      <c r="AH11">
+        <v>245</v>
+      </c>
+      <c r="AI11">
+        <v>204</v>
+      </c>
+      <c r="AJ11">
+        <v>128</v>
+      </c>
+      <c r="AK11">
+        <v>158</v>
+      </c>
+      <c r="AL11">
+        <v>171</v>
+      </c>
+      <c r="AM11">
+        <v>204</v>
+      </c>
+      <c r="AN11">
+        <v>223</v>
+      </c>
+      <c r="AO11">
+        <v>224</v>
+      </c>
+      <c r="AP11">
+        <v>276</v>
+      </c>
+      <c r="AQ11">
+        <v>305</v>
+      </c>
+      <c r="AR11">
+        <v>264</v>
+      </c>
+      <c r="AS11">
+        <v>322</v>
+      </c>
+      <c r="AT11">
+        <v>259</v>
+      </c>
+      <c r="AU11">
+        <v>225</v>
+      </c>
+      <c r="AV11">
+        <v>158</v>
+      </c>
+      <c r="AW11">
+        <v>170</v>
+      </c>
+      <c r="AX11">
+        <v>170</v>
+      </c>
+      <c r="AY11">
+        <v>198</v>
+      </c>
+      <c r="AZ11">
+        <v>205</v>
+      </c>
+      <c r="BA11">
+        <v>160</v>
+      </c>
+      <c r="BB11">
+        <v>113</v>
+      </c>
+      <c r="BC11">
+        <v>105</v>
+      </c>
+      <c r="BD11">
+        <v>91</v>
+      </c>
+      <c r="BE11">
         <v>96</v>
       </c>
-      <c r="N11">
-        <v>92</v>
-      </c>
-      <c r="O11">
-        <v>150</v>
-      </c>
-      <c r="P11">
-        <v>116</v>
-      </c>
-      <c r="Q11">
-        <v>112</v>
-      </c>
-      <c r="R11">
-        <v>120</v>
-      </c>
-      <c r="S11">
-        <v>142</v>
-      </c>
-      <c r="T11">
-        <v>106</v>
-      </c>
-      <c r="U11">
+      <c r="BF11">
+        <v>56</v>
+      </c>
+      <c r="BG11">
+        <v>135</v>
+      </c>
+      <c r="BH11">
+        <v>127</v>
+      </c>
+      <c r="BI11">
+        <v>184</v>
+      </c>
+      <c r="BJ11">
+        <v>389</v>
+      </c>
+      <c r="BK11">
+        <v>385</v>
+      </c>
+      <c r="BL11">
+        <v>397</v>
+      </c>
+      <c r="BM11">
+        <v>381</v>
+      </c>
+      <c r="BN11">
+        <v>366</v>
+      </c>
+      <c r="BO11">
+        <v>378</v>
+      </c>
+      <c r="BP11">
+        <v>293</v>
+      </c>
+      <c r="BQ11">
+        <v>72</v>
+      </c>
+      <c r="BR11">
+        <v>162</v>
+      </c>
+      <c r="BS11">
+        <v>170</v>
+      </c>
+      <c r="BT11">
+        <v>245</v>
+      </c>
+      <c r="BU11">
         <v>218</v>
       </c>
-      <c r="V11">
-        <v>122</v>
-      </c>
-      <c r="W11">
-        <v>236</v>
-      </c>
-      <c r="X11">
-        <v>154</v>
-      </c>
-      <c r="Y11">
+      <c r="BV11">
+        <v>446</v>
+      </c>
+      <c r="BW11">
+        <v>453</v>
+      </c>
+      <c r="BX11">
+        <v>481</v>
+      </c>
+      <c r="BY11">
+        <v>497</v>
+      </c>
+      <c r="BZ11">
+        <v>508</v>
+      </c>
+      <c r="CA11">
+        <v>406</v>
+      </c>
+      <c r="CB11">
+        <v>459</v>
+      </c>
+      <c r="CC11">
+        <v>401</v>
+      </c>
+      <c r="CD11">
+        <v>344</v>
+      </c>
+      <c r="CE11">
+        <v>475</v>
+      </c>
+      <c r="CF11">
+        <v>314</v>
+      </c>
+      <c r="CG11">
         <v>200</v>
       </c>
-      <c r="Z11">
-        <v>68</v>
-      </c>
-      <c r="AA11">
-        <v>94</v>
-      </c>
-      <c r="AB11">
-        <v>148</v>
-      </c>
-      <c r="AC11">
-        <v>108</v>
-      </c>
-      <c r="AD11">
-        <v>106</v>
-      </c>
-      <c r="AE11">
-        <v>92</v>
-      </c>
-      <c r="AF11">
-        <v>144</v>
-      </c>
-      <c r="AG11">
-        <v>164</v>
-      </c>
-      <c r="AH11">
-        <v>146</v>
-      </c>
-      <c r="AI11">
-        <v>146</v>
-      </c>
-      <c r="AJ11">
-        <v>84</v>
-      </c>
-      <c r="AK11">
-        <v>170</v>
-      </c>
-      <c r="AL11">
-        <v>34</v>
-      </c>
-      <c r="AM11">
-        <v>22</v>
-      </c>
-      <c r="AN11">
-        <v>38</v>
-      </c>
-      <c r="AO11">
-        <v>26</v>
-      </c>
-      <c r="AP11">
-        <v>58</v>
-      </c>
-      <c r="AQ11">
-        <v>98</v>
-      </c>
-      <c r="AR11">
-        <v>86</v>
-      </c>
-      <c r="AS11">
-        <v>88</v>
-      </c>
-      <c r="AT11">
-        <v>76</v>
-      </c>
-      <c r="AU11">
-        <v>62</v>
-      </c>
-      <c r="AV11">
-        <v>72</v>
-      </c>
-      <c r="AW11">
-        <v>66</v>
-      </c>
-      <c r="AX11">
-        <v>38</v>
-      </c>
-      <c r="AY11">
-        <v>38</v>
-      </c>
-      <c r="AZ11">
-        <v>52</v>
-      </c>
-      <c r="BA11">
-        <v>40</v>
-      </c>
-      <c r="BB11">
-        <v>32</v>
-      </c>
-      <c r="BC11">
-        <v>34</v>
-      </c>
-      <c r="BD11">
-        <v>32</v>
-      </c>
-      <c r="BE11">
-        <v>48</v>
-      </c>
-      <c r="BF11">
-        <v>22</v>
-      </c>
-      <c r="BG11">
-        <v>26</v>
-      </c>
-      <c r="BH11">
-        <v>32</v>
-      </c>
-      <c r="BI11">
-        <v>32</v>
-      </c>
-      <c r="BJ11">
-        <v>24</v>
-      </c>
-      <c r="BK11">
-        <v>38</v>
-      </c>
-      <c r="BL11">
-        <v>24</v>
-      </c>
-      <c r="BM11">
-        <v>24</v>
-      </c>
-      <c r="BN11">
-        <v>30</v>
-      </c>
-      <c r="BO11">
-        <v>22</v>
-      </c>
-      <c r="BP11">
-        <v>30</v>
-      </c>
-      <c r="BQ11">
-        <v>12</v>
-      </c>
-      <c r="BR11">
-        <v>8</v>
-      </c>
-      <c r="BS11">
-        <v>16</v>
-      </c>
-      <c r="BT11">
-        <v>30</v>
-      </c>
-      <c r="BU11">
-        <v>30</v>
-      </c>
-      <c r="BV11">
-        <v>46</v>
-      </c>
-      <c r="BW11">
-        <v>34</v>
-      </c>
-      <c r="BX11">
-        <v>42</v>
-      </c>
-      <c r="BY11">
-        <v>52</v>
-      </c>
-      <c r="BZ11">
-        <v>16</v>
-      </c>
-      <c r="CA11">
-        <v>38</v>
-      </c>
-      <c r="CB11">
-        <v>112</v>
-      </c>
-      <c r="CC11">
-        <v>90</v>
-      </c>
-      <c r="CD11">
-        <v>24</v>
-      </c>
-      <c r="CE11">
-        <v>40</v>
-      </c>
-      <c r="CF11">
-        <v>32</v>
-      </c>
-      <c r="CG11">
-        <v>16</v>
-      </c>
       <c r="CH11">
-        <v>98</v>
+        <v>822</v>
       </c>
       <c r="CI11">
-        <v>132</v>
+        <v>880</v>
       </c>
       <c r="CJ11">
-        <v>138</v>
+        <v>946</v>
       </c>
       <c r="CK11">
-        <v>138</v>
+        <v>683</v>
       </c>
       <c r="CL11">
-        <v>134</v>
+        <v>914</v>
       </c>
       <c r="CM11">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="CN11">
-        <v>78</v>
+        <v>719</v>
       </c>
       <c r="CO11">
-        <v>62</v>
+        <v>882</v>
       </c>
       <c r="CP11">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="CQ11">
-        <v>66</v>
+        <v>609</v>
       </c>
       <c r="CR11">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="CS11">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="CT11">
-        <v>138</v>
+        <v>965</v>
       </c>
       <c r="CU11">
-        <v>208</v>
+        <v>1093</v>
       </c>
       <c r="CV11">
-        <v>298</v>
+        <v>1308</v>
       </c>
       <c r="CW11">
-        <v>290</v>
+        <v>967</v>
       </c>
       <c r="CX11">
-        <v>226</v>
+        <v>1124</v>
       </c>
       <c r="CY11">
-        <v>216</v>
+        <v>1105</v>
       </c>
       <c r="CZ11">
-        <v>170</v>
+        <v>871</v>
       </c>
       <c r="DA11">
-        <v>116</v>
+        <v>590</v>
       </c>
       <c r="DB11">
-        <v>68</v>
+        <v>1162</v>
       </c>
       <c r="DC11">
-        <v>112</v>
+        <v>955</v>
       </c>
       <c r="DD11">
-        <v>78</v>
+        <v>801</v>
       </c>
       <c r="DE11">
-        <v>102</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>5751</v>
+        <v>269</v>
       </c>
       <c r="C12">
-        <v>5989</v>
+        <v>290</v>
       </c>
       <c r="D12">
-        <v>7662</v>
+        <v>433</v>
       </c>
       <c r="E12">
-        <v>8060</v>
+        <v>412</v>
       </c>
       <c r="F12">
-        <v>9440</v>
+        <v>406</v>
       </c>
       <c r="G12">
-        <v>7944</v>
+        <v>403</v>
       </c>
       <c r="H12">
-        <v>8146</v>
+        <v>345</v>
       </c>
       <c r="I12">
-        <v>6968</v>
+        <v>322</v>
       </c>
       <c r="J12">
-        <v>5279</v>
+        <v>238</v>
       </c>
       <c r="K12">
-        <v>5822</v>
+        <v>284</v>
       </c>
       <c r="L12">
-        <v>4300</v>
+        <v>218</v>
       </c>
       <c r="M12">
-        <v>4004</v>
+        <v>225</v>
       </c>
       <c r="N12">
-        <v>5885</v>
+        <v>277</v>
       </c>
       <c r="O12">
-        <v>6489</v>
+        <v>332</v>
       </c>
       <c r="P12">
-        <v>6093</v>
+        <v>328</v>
       </c>
       <c r="Q12">
-        <v>6183</v>
+        <v>346</v>
       </c>
       <c r="R12">
-        <v>6652</v>
+        <v>381</v>
       </c>
       <c r="S12">
-        <v>6242</v>
+        <v>340</v>
       </c>
       <c r="T12">
-        <v>6380</v>
+        <v>308</v>
       </c>
       <c r="U12">
-        <v>6891</v>
+        <v>355</v>
       </c>
       <c r="V12">
-        <v>5931</v>
+        <v>325</v>
       </c>
       <c r="W12">
-        <v>7545</v>
+        <v>348</v>
       </c>
       <c r="X12">
-        <v>5082</v>
+        <v>203</v>
       </c>
       <c r="Y12">
-        <v>5507</v>
+        <v>247</v>
       </c>
       <c r="Z12">
-        <v>5946</v>
+        <v>286</v>
       </c>
       <c r="AA12">
-        <v>6729</v>
+        <v>355</v>
       </c>
       <c r="AB12">
-        <v>7819</v>
+        <v>477</v>
       </c>
       <c r="AC12">
-        <v>6310</v>
+        <v>353</v>
       </c>
       <c r="AD12">
-        <v>7062</v>
+        <v>413</v>
       </c>
       <c r="AE12">
-        <v>6386</v>
+        <v>327</v>
       </c>
       <c r="AF12">
-        <v>6261</v>
+        <v>337</v>
       </c>
       <c r="AG12">
-        <v>7008</v>
+        <v>397</v>
       </c>
       <c r="AH12">
-        <v>7236</v>
+        <v>422</v>
       </c>
       <c r="AI12">
-        <v>7009</v>
+        <v>358</v>
       </c>
       <c r="AJ12">
-        <v>5229</v>
+        <v>250</v>
       </c>
       <c r="AK12">
-        <v>5917</v>
+        <v>315</v>
       </c>
       <c r="AL12">
-        <v>4494</v>
+        <v>297</v>
       </c>
       <c r="AM12">
-        <v>5133</v>
+        <v>347</v>
       </c>
       <c r="AN12">
-        <v>6536</v>
+        <v>472</v>
       </c>
       <c r="AO12">
-        <v>5944</v>
+        <v>424</v>
       </c>
       <c r="AP12">
-        <v>7266</v>
+        <v>586</v>
       </c>
       <c r="AQ12">
-        <v>7416</v>
+        <v>520</v>
       </c>
       <c r="AR12">
-        <v>6429</v>
+        <v>436</v>
       </c>
       <c r="AS12">
-        <v>7720</v>
+        <v>565</v>
       </c>
       <c r="AT12">
-        <v>7001</v>
+        <v>379</v>
       </c>
       <c r="AU12">
-        <v>5820</v>
+        <v>314</v>
       </c>
       <c r="AV12">
-        <v>6202</v>
+        <v>314</v>
       </c>
       <c r="AW12">
-        <v>6737</v>
+        <v>313</v>
       </c>
       <c r="AX12">
-        <v>6464</v>
+        <v>267</v>
       </c>
       <c r="AY12">
-        <v>6764</v>
+        <v>270</v>
       </c>
       <c r="AZ12">
-        <v>6689</v>
+        <v>353</v>
       </c>
       <c r="BA12">
-        <v>6507</v>
+        <v>298</v>
       </c>
       <c r="BB12">
-        <v>5679</v>
+        <v>245</v>
       </c>
       <c r="BC12">
-        <v>5083</v>
+        <v>223</v>
       </c>
       <c r="BD12">
-        <v>5021</v>
+        <v>229</v>
       </c>
       <c r="BE12">
-        <v>4576</v>
+        <v>182</v>
       </c>
       <c r="BF12">
-        <v>3680</v>
+        <v>168</v>
       </c>
       <c r="BG12">
-        <v>4154</v>
+        <v>253</v>
       </c>
       <c r="BH12">
-        <v>4672</v>
+        <v>271</v>
       </c>
       <c r="BI12">
-        <v>5346</v>
+        <v>387</v>
       </c>
       <c r="BJ12">
-        <v>7794</v>
+        <v>431</v>
       </c>
       <c r="BK12">
-        <v>7684</v>
+        <v>449</v>
       </c>
       <c r="BL12">
-        <v>8227</v>
+        <v>417</v>
       </c>
       <c r="BM12">
-        <v>8039</v>
+        <v>415</v>
       </c>
       <c r="BN12">
-        <v>8425</v>
+        <v>438</v>
       </c>
       <c r="BO12">
-        <v>8100</v>
+        <v>413</v>
       </c>
       <c r="BP12">
-        <v>7511</v>
+        <v>334</v>
       </c>
       <c r="BQ12">
-        <v>1744</v>
+        <v>80</v>
       </c>
       <c r="BR12">
-        <v>4274</v>
+        <v>227</v>
       </c>
       <c r="BS12">
-        <v>6096</v>
+        <v>261</v>
       </c>
       <c r="BT12">
-        <v>6067</v>
+        <v>261</v>
       </c>
       <c r="BU12">
-        <v>6359</v>
+        <v>261</v>
       </c>
       <c r="BV12">
-        <v>9091</v>
+        <v>422</v>
       </c>
       <c r="BW12">
-        <v>9401</v>
+        <v>475</v>
       </c>
       <c r="BX12">
-        <v>9308</v>
+        <v>520</v>
       </c>
       <c r="BY12">
-        <v>8463</v>
+        <v>482</v>
       </c>
       <c r="BZ12">
-        <v>8849</v>
+        <v>482</v>
       </c>
       <c r="CA12">
-        <v>7948</v>
+        <v>442</v>
       </c>
       <c r="CB12">
-        <v>7764</v>
+        <v>486</v>
       </c>
       <c r="CC12">
-        <v>7519</v>
+        <v>421</v>
       </c>
       <c r="CD12">
-        <v>6690</v>
+        <v>328</v>
       </c>
       <c r="CE12">
-        <v>8563</v>
+        <v>438</v>
       </c>
       <c r="CF12">
-        <v>5908</v>
+        <v>293</v>
       </c>
       <c r="CG12">
-        <v>4461</v>
+        <v>238</v>
       </c>
       <c r="CH12">
-        <v>12965</v>
+        <v>648</v>
       </c>
       <c r="CI12">
-        <v>13533</v>
+        <v>741</v>
       </c>
       <c r="CJ12">
-        <v>13693</v>
+        <v>816</v>
       </c>
       <c r="CK12">
-        <v>11136</v>
+        <v>625</v>
       </c>
       <c r="CL12">
-        <v>13593</v>
+        <v>781</v>
       </c>
       <c r="CM12">
-        <v>11392</v>
+        <v>595</v>
       </c>
       <c r="CN12">
-        <v>10642</v>
+        <v>574</v>
       </c>
       <c r="CO12">
-        <v>11795</v>
+        <v>627</v>
       </c>
       <c r="CP12">
-        <v>9734</v>
+        <v>518</v>
       </c>
       <c r="CQ12">
-        <v>11363</v>
+        <v>594</v>
       </c>
       <c r="CR12">
-        <v>8293</v>
+        <v>339</v>
       </c>
       <c r="CS12">
-        <v>10232</v>
+        <v>431</v>
       </c>
       <c r="CT12">
-        <v>13405</v>
+        <v>816</v>
       </c>
       <c r="CU12">
-        <v>14082</v>
+        <v>922</v>
       </c>
       <c r="CV12">
-        <v>17435</v>
+        <v>1159</v>
       </c>
       <c r="CW12">
-        <v>13509</v>
+        <v>923</v>
       </c>
       <c r="CX12">
-        <v>14690</v>
+        <v>882</v>
       </c>
       <c r="CY12">
-        <v>14441</v>
+        <v>842</v>
       </c>
       <c r="CZ12">
-        <v>13097</v>
+        <v>699</v>
       </c>
       <c r="DA12">
-        <v>10622</v>
+        <v>467</v>
       </c>
       <c r="DB12">
-        <v>14928</v>
+        <v>889</v>
       </c>
       <c r="DC12">
-        <v>13252</v>
+        <v>762</v>
       </c>
       <c r="DD12">
-        <v>12158</v>
+        <v>613</v>
       </c>
       <c r="DE12">
-        <v>13476</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>86493</v>
+        <v>182</v>
       </c>
       <c r="C13">
-        <v>91588</v>
+        <v>156</v>
       </c>
       <c r="D13">
-        <v>122986</v>
+        <v>104</v>
       </c>
       <c r="E13">
-        <v>120650</v>
+        <v>76</v>
       </c>
       <c r="F13">
-        <v>147190</v>
+        <v>190</v>
       </c>
       <c r="G13">
-        <v>115321</v>
+        <v>134</v>
       </c>
       <c r="H13">
-        <v>122526</v>
+        <v>146</v>
       </c>
       <c r="I13">
-        <v>120012</v>
+        <v>120</v>
       </c>
       <c r="J13">
-        <v>88941</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>107801</v>
+        <v>188</v>
       </c>
       <c r="L13">
-        <v>71969</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>74093</v>
+        <v>96</v>
       </c>
       <c r="N13">
-        <v>110927</v>
+        <v>92</v>
       </c>
       <c r="O13">
-        <v>121010</v>
+        <v>150</v>
       </c>
       <c r="P13">
-        <v>116265</v>
+        <v>116</v>
       </c>
       <c r="Q13">
-        <v>116314</v>
+        <v>112</v>
       </c>
       <c r="R13">
-        <v>122593</v>
+        <v>120</v>
       </c>
       <c r="S13">
-        <v>114118</v>
+        <v>142</v>
       </c>
       <c r="T13">
-        <v>116262</v>
+        <v>106</v>
       </c>
       <c r="U13">
-        <v>124783</v>
+        <v>218</v>
       </c>
       <c r="V13">
-        <v>107450</v>
+        <v>122</v>
       </c>
       <c r="W13">
-        <v>123378</v>
+        <v>236</v>
       </c>
       <c r="X13">
-        <v>78437</v>
+        <v>154</v>
       </c>
       <c r="Y13">
-        <v>95891</v>
+        <v>200</v>
       </c>
       <c r="Z13">
-        <v>114358</v>
+        <v>68</v>
       </c>
       <c r="AA13">
-        <v>135169</v>
+        <v>94</v>
       </c>
       <c r="AB13">
-        <v>161964</v>
+        <v>148</v>
       </c>
       <c r="AC13">
-        <v>123428</v>
+        <v>108</v>
       </c>
       <c r="AD13">
-        <v>145679</v>
+        <v>106</v>
       </c>
       <c r="AE13">
-        <v>135373</v>
+        <v>92</v>
       </c>
       <c r="AF13">
-        <v>129175</v>
+        <v>144</v>
       </c>
       <c r="AG13">
-        <v>140530</v>
+        <v>164</v>
       </c>
       <c r="AH13">
-        <v>140568</v>
+        <v>146</v>
       </c>
       <c r="AI13">
-        <v>130705</v>
+        <v>146</v>
       </c>
       <c r="AJ13">
-        <v>97921</v>
+        <v>84</v>
       </c>
       <c r="AK13">
-        <v>122947</v>
+        <v>170</v>
       </c>
       <c r="AL13">
-        <v>93659</v>
+        <v>34</v>
       </c>
       <c r="AM13">
-        <v>106229</v>
+        <v>22</v>
       </c>
       <c r="AN13">
-        <v>131196</v>
+        <v>38</v>
       </c>
       <c r="AO13">
-        <v>119253</v>
+        <v>26</v>
       </c>
       <c r="AP13">
-        <v>153825</v>
+        <v>58</v>
       </c>
       <c r="AQ13">
-        <v>159215</v>
+        <v>98</v>
       </c>
       <c r="AR13">
-        <v>141871</v>
+        <v>86</v>
       </c>
       <c r="AS13">
-        <v>164431</v>
+        <v>88</v>
       </c>
       <c r="AT13">
-        <v>157196</v>
+        <v>76</v>
       </c>
       <c r="AU13">
-        <v>129019</v>
+        <v>62</v>
       </c>
       <c r="AV13">
-        <v>131051</v>
+        <v>72</v>
       </c>
       <c r="AW13">
-        <v>134804</v>
+        <v>66</v>
       </c>
       <c r="AX13">
-        <v>164330</v>
+        <v>38</v>
       </c>
       <c r="AY13">
-        <v>169745</v>
+        <v>38</v>
       </c>
       <c r="AZ13">
-        <v>155600</v>
+        <v>52</v>
       </c>
       <c r="BA13">
-        <v>147355</v>
+        <v>40</v>
       </c>
       <c r="BB13">
-        <v>135439</v>
+        <v>32</v>
       </c>
       <c r="BC13">
-        <v>127570</v>
+        <v>34</v>
       </c>
       <c r="BD13">
-        <v>115381</v>
+        <v>32</v>
       </c>
       <c r="BE13">
-        <v>98407</v>
+        <v>48</v>
       </c>
       <c r="BF13">
-        <v>86377</v>
+        <v>22</v>
       </c>
       <c r="BG13">
-        <v>114828</v>
+        <v>26</v>
       </c>
       <c r="BH13">
-        <v>107686</v>
+        <v>32</v>
       </c>
       <c r="BI13">
-        <v>119860</v>
+        <v>32</v>
       </c>
       <c r="BJ13">
-        <v>212460</v>
+        <v>24</v>
       </c>
       <c r="BK13">
-        <v>205926</v>
+        <v>38</v>
       </c>
       <c r="BL13">
-        <v>221887</v>
+        <v>24</v>
       </c>
       <c r="BM13">
-        <v>207100</v>
+        <v>24</v>
       </c>
       <c r="BN13">
-        <v>218736</v>
+        <v>30</v>
       </c>
       <c r="BO13">
-        <v>206553</v>
+        <v>22</v>
       </c>
       <c r="BP13">
-        <v>197574</v>
+        <v>30</v>
       </c>
       <c r="BQ13">
-        <v>48459</v>
+        <v>12</v>
       </c>
       <c r="BR13">
-        <v>114545</v>
+        <v>8</v>
       </c>
       <c r="BS13">
-        <v>199666</v>
+        <v>16</v>
       </c>
       <c r="BT13">
-        <v>172035</v>
+        <v>30</v>
       </c>
       <c r="BU13">
-        <v>166373</v>
+        <v>30</v>
       </c>
       <c r="BV13">
-        <v>247284</v>
+        <v>46</v>
       </c>
       <c r="BW13">
-        <v>237029</v>
+        <v>34</v>
       </c>
       <c r="BX13">
-        <v>224278</v>
+        <v>42</v>
       </c>
       <c r="BY13">
-        <v>215775</v>
+        <v>52</v>
       </c>
       <c r="BZ13">
-        <v>244566</v>
+        <v>16</v>
       </c>
       <c r="CA13">
-        <v>231227</v>
+        <v>38</v>
       </c>
       <c r="CB13">
-        <v>241851</v>
+        <v>112</v>
       </c>
       <c r="CC13">
-        <v>240772</v>
+        <v>90</v>
       </c>
       <c r="CD13">
-        <v>199671</v>
+        <v>24</v>
       </c>
       <c r="CE13">
-        <v>229566</v>
+        <v>40</v>
       </c>
       <c r="CF13">
-        <v>191748</v>
+        <v>32</v>
       </c>
       <c r="CG13">
-        <v>261339</v>
+        <v>16</v>
       </c>
       <c r="CH13">
-        <v>232490</v>
+        <v>98</v>
       </c>
       <c r="CI13">
-        <v>239556</v>
+        <v>132</v>
       </c>
       <c r="CJ13">
-        <v>255622</v>
+        <v>138</v>
       </c>
       <c r="CK13">
-        <v>207192</v>
+        <v>138</v>
       </c>
       <c r="CL13">
-        <v>268477</v>
+        <v>134</v>
       </c>
       <c r="CM13">
-        <v>234264</v>
+        <v>150</v>
       </c>
       <c r="CN13">
-        <v>242851</v>
+        <v>78</v>
       </c>
       <c r="CO13">
-        <v>288167</v>
+        <v>62</v>
       </c>
       <c r="CP13">
-        <v>228121</v>
+        <v>60</v>
       </c>
       <c r="CQ13">
-        <v>254708</v>
+        <v>66</v>
       </c>
       <c r="CR13">
-        <v>180244</v>
+        <v>76</v>
       </c>
       <c r="CS13">
-        <v>228896</v>
+        <v>56</v>
       </c>
       <c r="CT13">
-        <v>220687</v>
+        <v>138</v>
       </c>
       <c r="CU13">
-        <v>235030</v>
+        <v>208</v>
       </c>
       <c r="CV13">
-        <v>292153</v>
+        <v>298</v>
       </c>
       <c r="CW13">
-        <v>253097</v>
+        <v>290</v>
       </c>
       <c r="CX13">
-        <v>265231</v>
+        <v>226</v>
       </c>
       <c r="CY13">
-        <v>265185</v>
+        <v>216</v>
       </c>
       <c r="CZ13">
-        <v>238007</v>
+        <v>170</v>
       </c>
       <c r="DA13">
-        <v>188822</v>
+        <v>116</v>
       </c>
       <c r="DB13">
-        <v>287853</v>
+        <v>68</v>
       </c>
       <c r="DC13">
-        <v>249689</v>
+        <v>112</v>
       </c>
       <c r="DD13">
-        <v>214956</v>
+        <v>78</v>
       </c>
       <c r="DE13">
-        <v>235276</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DE13">
+      <sortCondition ref="A1:A13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>